--- a/QuangMay/Data/dovixich.xlsx
+++ b/QuangMay/Data/dovixich.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\OUTSOURCE\QuangMay\QuangMay\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="19875" windowHeight="7725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TP.HCM" sheetId="1" r:id="rId1"/>
@@ -187,6 +192,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -234,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4529,4047 +4537,4048 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F366"/>
+  <dimension ref="A1:E366"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="3">
         <v>16</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D2" s="1">
+        <v>-23.011584951189064</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.40162886268141978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-22.930487097374034</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.40021343480616817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-22.842594413573966</v>
+      </c>
+      <c r="E4" s="1">
+        <v>-0.39867941449824429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>-23.011584951189064</v>
-      </c>
-      <c r="F2" s="1">
-        <v>-0.40162886268141978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-22.930487097374034</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-0.40021343480616817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-22.842594413573966</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-0.39867941449824429</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
-        <v>4</v>
+        <v>-22.747932944409765</v>
       </c>
       <c r="E5" s="1">
-        <v>-22.747932944409765</v>
-      </c>
-      <c r="F5" s="1">
         <v>-0.39702725632309843</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>-22.646530740248878</v>
       </c>
       <c r="E6" s="1">
-        <v>-22.646530740248878</v>
-      </c>
-      <c r="F6" s="1">
         <v>-0.39525744985314371</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>-22.538417848893364</v>
       </c>
       <c r="E7" s="1">
-        <v>-22.538417848893364</v>
-      </c>
-      <c r="F7" s="1">
         <v>-0.39337051952268554</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
       <c r="D8" s="1">
-        <v>7</v>
+        <v>-22.423626306676024</v>
       </c>
       <c r="E8" s="1">
-        <v>-22.423626306676024</v>
-      </c>
-      <c r="F8" s="1">
         <v>-0.39136702447251887</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
       <c r="D9" s="1">
-        <v>8</v>
+        <v>-22.302190128967315</v>
       </c>
       <c r="E9" s="1">
-        <v>-22.302190128967315</v>
-      </c>
-      <c r="F9" s="1">
         <v>-0.38924755838424285</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
       <c r="D10" s="1">
-        <v>9</v>
+        <v>-22.17414530009577</v>
       </c>
       <c r="E10" s="1">
-        <v>-22.17414530009577</v>
-      </c>
-      <c r="F10" s="1">
         <v>-0.38701274930433816</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>-22.039529762685078</v>
       </c>
       <c r="E11" s="1">
-        <v>-22.039529762685078</v>
-      </c>
-      <c r="F11" s="1">
         <v>-0.38466325945806357</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
       <c r="D12" s="1">
-        <v>11</v>
+        <v>-21.898383406410762</v>
       </c>
       <c r="E12" s="1">
-        <v>-21.898383406410762</v>
-      </c>
-      <c r="F12" s="1">
         <v>-0.3821997850532225</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
       <c r="D13" s="1">
-        <v>12</v>
+        <v>-21.750748056179983</v>
       </c>
       <c r="E13" s="1">
-        <v>-21.750748056179983</v>
-      </c>
-      <c r="F13" s="1">
         <v>-0.37962305607386126</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
       <c r="D14" s="1">
-        <v>13</v>
+        <v>-21.596667459737837</v>
       </c>
       <c r="E14" s="1">
-        <v>-21.596667459737837</v>
-      </c>
-      <c r="F14" s="1">
         <v>-0.37693383606395775</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
       <c r="D15" s="1">
-        <v>14</v>
+        <v>-21.436187274703915</v>
       </c>
       <c r="E15" s="1">
-        <v>-21.436187274703915</v>
-      </c>
-      <c r="F15" s="1">
         <v>-0.37413292190116565</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>-21.269355055042887</v>
       </c>
       <c r="E16" s="1">
-        <v>-21.269355055042887</v>
-      </c>
-      <c r="F16" s="1">
         <v>-0.37122114356068181</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
       <c r="D17" s="1">
-        <v>16</v>
+        <v>-21.096220236973167</v>
       </c>
       <c r="E17" s="1">
-        <v>-21.096220236973167</v>
-      </c>
-      <c r="F17" s="1">
         <v>-0.36819936386930502</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
       <c r="D18" s="1">
-        <v>17</v>
+        <v>-20.916834124317845</v>
       </c>
       <c r="E18" s="1">
-        <v>-20.916834124317845</v>
-      </c>
-      <c r="F18" s="1">
         <v>-0.3650684782497608</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
       <c r="D19" s="1">
-        <v>18</v>
+        <v>-20.731249873302165</v>
       </c>
       <c r="E19" s="1">
-        <v>-20.731249873302165</v>
-      </c>
-      <c r="F19" s="1">
         <v>-0.36182941445536709</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
       <c r="D20" s="1">
-        <v>19</v>
+        <v>-20.539522476802127</v>
       </c>
       <c r="E20" s="1">
-        <v>-20.539522476802127</v>
-      </c>
-      <c r="F20" s="1">
         <v>-0.35848313229511974</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
       <c r="D21" s="1">
-        <v>20</v>
+        <v>-20.341708748048823</v>
       </c>
       <c r="E21" s="1">
-        <v>-20.341708748048823</v>
-      </c>
-      <c r="F21" s="1">
         <v>-0.35503062334927882</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
       <c r="D22" s="1">
-        <v>21</v>
+        <v>-20.137867303793413</v>
       </c>
       <c r="E22" s="1">
-        <v>-20.137867303793413</v>
-      </c>
-      <c r="F22" s="1">
         <v>-0.35147291067554104</v>
       </c>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
       <c r="D23" s="1">
-        <v>22</v>
+        <v>-19.928058546937546</v>
       </c>
       <c r="E23" s="1">
-        <v>-19.928058546937546</v>
-      </c>
-      <c r="F23" s="1">
         <v>-0.34781104850588329</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
       <c r="D24" s="1">
-        <v>23</v>
+        <v>-19.712344648634698</v>
       </c>
       <c r="E24" s="1">
-        <v>-19.712344648634698</v>
-      </c>
-      <c r="F24" s="1">
         <v>-0.34404612193417095</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>24</v>
+      </c>
       <c r="D25" s="1">
-        <v>24</v>
+        <v>-19.490789529867349</v>
       </c>
       <c r="E25" s="1">
-        <v>-19.490789529867349</v>
-      </c>
-      <c r="F25" s="1">
         <v>-0.34017924659461812</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
       <c r="D26" s="1">
-        <v>25</v>
+        <v>-19.263458842505809</v>
       </c>
       <c r="E26" s="1">
-        <v>-19.263458842505809</v>
-      </c>
-      <c r="F26" s="1">
         <v>-0.33621156833120136</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
       <c r="D27" s="1">
-        <v>26</v>
+        <v>-19.030419949853943</v>
       </c>
       <c r="E27" s="1">
-        <v>-19.030419949853943</v>
-      </c>
-      <c r="F27" s="1">
         <v>-0.33214426285811749</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>27</v>
+      </c>
       <c r="D28" s="1">
-        <v>27</v>
+        <v>-18.791741906688014</v>
       </c>
       <c r="E28" s="1">
-        <v>-18.791741906688014</v>
-      </c>
-      <c r="F28" s="1">
         <v>-0.32797853541139477</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>28</v>
+      </c>
       <c r="D29" s="1">
-        <v>28</v>
+        <v>-18.547495438794066</v>
       </c>
       <c r="E29" s="1">
-        <v>-18.547495438794066</v>
-      </c>
-      <c r="F29" s="1">
         <v>-0.32371562039175239</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>29</v>
+      </c>
       <c r="D30" s="1">
-        <v>29</v>
+        <v>-18.297752922010297</v>
       </c>
       <c r="E30" s="1">
-        <v>-18.297752922010297</v>
-      </c>
-      <c r="F30" s="1">
         <v>-0.3193567809988197</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>30</v>
+      </c>
       <c r="D31" s="1">
-        <v>30</v>
+        <v>-18.042588360780378</v>
       </c>
       <c r="E31" s="1">
-        <v>-18.042588360780378</v>
-      </c>
-      <c r="F31" s="1">
         <v>-0.31490330885682022</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>31</v>
+      </c>
       <c r="D32" s="1">
-        <v>31</v>
+        <v>-17.782077366224357</v>
       </c>
       <c r="E32" s="1">
-        <v>-17.782077366224357</v>
-      </c>
-      <c r="F32" s="1">
         <v>-0.3103565236318358</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>32</v>
+      </c>
       <c r="D33" s="1">
-        <v>32</v>
+        <v>-17.516297133733204</v>
       </c>
       <c r="E33" s="1">
-        <v>-17.516297133733204</v>
-      </c>
-      <c r="F33" s="1">
         <v>-0.30571777264075684</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>33</v>
+      </c>
       <c r="D34" s="1">
-        <v>33</v>
+        <v>-17.24532642009418</v>
       </c>
       <c r="E34" s="1">
-        <v>-17.24532642009418</v>
-      </c>
-      <c r="F34" s="1">
         <v>-0.30098843045204376</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>34</v>
+      </c>
       <c r="D35" s="1">
-        <v>34</v>
+        <v>-16.969245520153237</v>
       </c>
       <c r="E35" s="1">
-        <v>-16.969245520153237</v>
-      </c>
-      <c r="F35" s="1">
         <v>-0.2961698984784078</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>35</v>
+      </c>
       <c r="D36" s="1">
-        <v>35</v>
+        <v>-16.688136243021958</v>
       </c>
       <c r="E36" s="1">
-        <v>-16.688136243021958</v>
-      </c>
-      <c r="F36" s="1">
         <v>-0.29126360456154321</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>36</v>
+      </c>
       <c r="D37" s="1">
-        <v>36</v>
+        <v>-16.402081887835546</v>
       </c>
       <c r="E37" s="1">
-        <v>-16.402081887835546</v>
-      </c>
-      <c r="F37" s="1">
         <v>-0.28627100254902305</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>37</v>
+      </c>
       <c r="D38" s="1">
-        <v>37</v>
+        <v>-16.111167219069461</v>
       </c>
       <c r="E38" s="1">
-        <v>-16.111167219069461</v>
-      </c>
-      <c r="F38" s="1">
         <v>-0.28119357186349231</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>38</v>
+      </c>
       <c r="D39" s="1">
-        <v>38</v>
+        <v>-15.815478441421632</v>
       </c>
       <c r="E39" s="1">
-        <v>-15.815478441421632</v>
-      </c>
-      <c r="F39" s="1">
         <v>-0.2760328170642789</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>39</v>
+      </c>
       <c r="D40" s="1">
-        <v>39</v>
+        <v>-15.515103174268145</v>
       </c>
       <c r="E40" s="1">
-        <v>-15.515103174268145</v>
-      </c>
-      <c r="F40" s="1">
         <v>-0.27079026740155998</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>40</v>
+      </c>
       <c r="D41" s="1">
-        <v>40</v>
+        <v>-15.210130425699537</v>
       </c>
       <c r="E41" s="1">
-        <v>-15.210130425699537</v>
-      </c>
-      <c r="F41" s="1">
         <v>-0.26546747636320922</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
       <c r="D42" s="1">
-        <v>41</v>
+        <v>-14.90065056614575</v>
       </c>
       <c r="E42" s="1">
-        <v>-14.90065056614575</v>
-      </c>
-      <c r="F42" s="1">
         <v>-0.26006602121446382</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>42</v>
+      </c>
       <c r="D43" s="1">
-        <v>42</v>
+        <v>-14.586755301597114</v>
       </c>
       <c r="E43" s="1">
-        <v>-14.586755301597114</v>
-      </c>
-      <c r="F43" s="1">
         <v>-0.25458750253054163</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>43</v>
+      </c>
       <c r="D44" s="1">
-        <v>43</v>
+        <v>-14.268537646429994</v>
       </c>
       <c r="E44" s="1">
-        <v>-14.268537646429994</v>
-      </c>
-      <c r="F44" s="1">
         <v>-0.24903354372235817</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>44</v>
+      </c>
       <c r="D45" s="1">
-        <v>44</v>
+        <v>-13.946091895844248</v>
       </c>
       <c r="E45" s="1">
-        <v>-13.946091895844248</v>
-      </c>
-      <c r="F45" s="1">
         <v>-0.24340579055546827</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>45</v>
+      </c>
       <c r="D46" s="1">
-        <v>45</v>
+        <v>-13.619513597921639</v>
       </c>
       <c r="E46" s="1">
-        <v>-13.619513597921639</v>
-      </c>
-      <c r="F46" s="1">
         <v>-0.23770591066239233</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>46</v>
+      </c>
       <c r="D47" s="1">
-        <v>46</v>
+        <v>-13.288899525312495</v>
       </c>
       <c r="E47" s="1">
-        <v>-13.288899525312495</v>
-      </c>
-      <c r="F47" s="1">
         <v>-0.23193559304845407</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>47</v>
+      </c>
       <c r="D48" s="1">
-        <v>47</v>
+        <v>-12.95434764655999</v>
       </c>
       <c r="E48" s="1">
-        <v>-12.95434764655999</v>
-      </c>
-      <c r="F48" s="1">
         <v>-0.22609654759129366</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>48</v>
+      </c>
       <c r="D49" s="1">
-        <v>48</v>
+        <v>-12.615957097069629</v>
       </c>
       <c r="E49" s="1">
-        <v>-12.615957097069629</v>
-      </c>
-      <c r="F49" s="1">
         <v>-0.22019050453418856</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>49</v>
+      </c>
       <c r="D50" s="1">
-        <v>49</v>
+        <v>-12.273828149733264</v>
       </c>
       <c r="E50" s="1">
-        <v>-12.273828149733264</v>
-      </c>
-      <c r="F50" s="1">
         <v>-0.21421921397334459</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>50</v>
+      </c>
       <c r="D51" s="1">
-        <v>50</v>
+        <v>-11.928062185215817</v>
       </c>
       <c r="E51" s="1">
-        <v>-11.928062185215817</v>
-      </c>
-      <c r="F51" s="1">
         <v>-0.20818444533930006</v>
       </c>
     </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>51</v>
+      </c>
       <c r="D52" s="1">
-        <v>51</v>
+        <v>-11.578761661914051</v>
       </c>
       <c r="E52" s="1">
-        <v>-11.578761661914051</v>
-      </c>
-      <c r="F52" s="1">
         <v>-0.20208798687260657</v>
       </c>
     </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>52</v>
+      </c>
       <c r="D53" s="1">
-        <v>52</v>
+        <v>-11.226030085595546</v>
       </c>
       <c r="E53" s="1">
-        <v>-11.226030085595546</v>
-      </c>
-      <c r="F53" s="1">
         <v>-0.1959316450939276</v>
       </c>
     </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>53</v>
+      </c>
       <c r="D54" s="1">
-        <v>53</v>
+        <v>-10.869971978727813</v>
       </c>
       <c r="E54" s="1">
-        <v>-10.869971978727813</v>
-      </c>
-      <c r="F54" s="1">
         <v>-0.18971724426872943</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>54</v>
+      </c>
       <c r="D55" s="1">
-        <v>54</v>
+        <v>-10.510692849505679</v>
       </c>
       <c r="E55" s="1">
-        <v>-10.510692849505679</v>
-      </c>
-      <c r="F55" s="1">
         <v>-0.18344662586670576</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>55</v>
+      </c>
       <c r="D56" s="1">
-        <v>55</v>
+        <v>-10.148299160586962</v>
       </c>
       <c r="E56" s="1">
-        <v>-10.148299160586962</v>
-      </c>
-      <c r="F56" s="1">
         <v>-0.17712164801611111</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <v>56</v>
+      </c>
       <c r="D57" s="1">
-        <v>56</v>
+        <v>-9.7828982975449268</v>
       </c>
       <c r="E57" s="1">
-        <v>-9.7828982975449268</v>
-      </c>
-      <c r="F57" s="1">
         <v>-0.17074418495315077</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <v>57</v>
+      </c>
       <c r="D58" s="1">
-        <v>57</v>
+        <v>-9.4145985370477447</v>
       </c>
       <c r="E58" s="1">
-        <v>-9.4145985370477447</v>
-      </c>
-      <c r="F58" s="1">
         <v>-0.16431612646660665</v>
       </c>
     </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>58</v>
+      </c>
       <c r="D59" s="1">
-        <v>58</v>
+        <v>-9.0435090147733543</v>
       </c>
       <c r="E59" s="1">
-        <v>-9.0435090147733543</v>
-      </c>
-      <c r="F59" s="1">
         <v>-0.15783937733784428</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>59</v>
+      </c>
       <c r="D60" s="1">
-        <v>59</v>
+        <v>-8.6697396930702784</v>
       </c>
       <c r="E60" s="1">
-        <v>-8.6697396930702784</v>
-      </c>
-      <c r="F60" s="1">
         <v>-0.15131585677638659</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>60</v>
+      </c>
       <c r="D61" s="1">
-        <v>60</v>
+        <v>-8.2934013283730561</v>
       </c>
       <c r="E61" s="1">
-        <v>-8.2934013283730561</v>
-      </c>
-      <c r="F61" s="1">
         <v>-0.14474749785120442</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>61</v>
+      </c>
       <c r="D62" s="1">
-        <v>61</v>
+        <v>-7.9146054383827957</v>
       </c>
       <c r="E62" s="1">
-        <v>-7.9146054383827957</v>
-      </c>
-      <c r="F62" s="1">
         <v>-0.13813624691790774</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>62</v>
+      </c>
       <c r="D63" s="1">
-        <v>62</v>
+        <v>-7.5334642690216898</v>
       </c>
       <c r="E63" s="1">
-        <v>-7.5334642690216898</v>
-      </c>
-      <c r="F63" s="1">
         <v>-0.13148406304199189</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>63</v>
+      </c>
       <c r="D64" s="1">
-        <v>63</v>
+        <v>-7.1500907611721747</v>
       </c>
       <c r="E64" s="1">
-        <v>-7.1500907611721747</v>
-      </c>
-      <c r="F64" s="1">
         <v>-0.12479291741832502</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <v>64</v>
+      </c>
       <c r="D65" s="1">
-        <v>64</v>
+        <v>-6.7645985172097154</v>
       </c>
       <c r="E65" s="1">
-        <v>-6.7645985172097154</v>
-      </c>
-      <c r="F65" s="1">
         <v>-0.11806479278703357</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <v>65</v>
+      </c>
       <c r="D66" s="1">
-        <v>65</v>
+        <v>-6.3771017673401031</v>
       </c>
       <c r="E66" s="1">
-        <v>-6.3771017673401031</v>
-      </c>
-      <c r="F66" s="1">
         <v>-0.11130168284597593</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>66</v>
+      </c>
       <c r="D67" s="1">
-        <v>66</v>
+        <v>-5.9877153357501145</v>
       </c>
       <c r="E67" s="1">
-        <v>-5.9877153357501145</v>
-      </c>
-      <c r="F67" s="1">
         <v>-0.10450559165995865</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <v>67</v>
+      </c>
       <c r="D68" s="1">
-        <v>67</v>
+        <v>-5.5965546065827567</v>
       </c>
       <c r="E68" s="1">
-        <v>-5.5965546065827567</v>
-      </c>
-      <c r="F68" s="1">
         <v>-9.7678533066891046E-2</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <v>68</v>
+      </c>
       <c r="D69" s="1">
-        <v>68</v>
+        <v>-5.2037354897461032</v>
       </c>
       <c r="E69" s="1">
-        <v>-5.2037354897461032</v>
-      </c>
-      <c r="F69" s="1">
         <v>-9.082253008103533E-2</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
+        <v>69</v>
+      </c>
       <c r="D70" s="1">
-        <v>69</v>
+        <v>-4.8093743865665211</v>
       </c>
       <c r="E70" s="1">
-        <v>-4.8093743865665211</v>
-      </c>
-      <c r="F70" s="1">
         <v>-8.3939614293541007E-2</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <v>70</v>
+      </c>
       <c r="D71" s="1">
-        <v>70</v>
+        <v>-4.4135881552964689</v>
       </c>
       <c r="E71" s="1">
-        <v>-4.4135881552964689</v>
-      </c>
-      <c r="F71" s="1">
         <v>-7.7031825270441043E-2</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <v>71</v>
+      </c>
       <c r="D72" s="1">
-        <v>71</v>
+        <v>-4.0164940764865289</v>
       </c>
       <c r="E72" s="1">
-        <v>-4.0164940764865289</v>
-      </c>
-      <c r="F72" s="1">
         <v>-7.0101209948278217E-2</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>72</v>
+      </c>
       <c r="D73" s="1">
-        <v>72</v>
+        <v>-3.6182098182324851</v>
       </c>
       <c r="E73" s="1">
-        <v>-3.6182098182324851</v>
-      </c>
-      <c r="F73" s="1">
         <v>-6.314982202755097E-2</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>73</v>
+      </c>
       <c r="D74" s="1">
-        <v>73</v>
+        <v>-3.2188534013077725</v>
       </c>
       <c r="E74" s="1">
-        <v>-3.2188534013077725</v>
-      </c>
-      <c r="F74" s="1">
         <v>-5.6179721364158323E-2</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <v>74</v>
+      </c>
       <c r="D75" s="1">
-        <v>74</v>
+        <v>-2.8185431641908973</v>
       </c>
       <c r="E75" s="1">
-        <v>-2.8185431641908973</v>
-      </c>
-      <c r="F75" s="1">
         <v>-4.91929733590118E-2</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <v>75</v>
+      </c>
       <c r="D76" s="1">
-        <v>75</v>
+        <v>-2.4173977279993424</v>
       </c>
       <c r="E76" s="1">
-        <v>-2.4173977279993424</v>
-      </c>
-      <c r="F76" s="1">
         <v>-4.2191648346015187E-2</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
+        <v>76</v>
+      </c>
       <c r="D77" s="1">
-        <v>76</v>
+        <v>-2.0155359613391548</v>
       </c>
       <c r="E77" s="1">
-        <v>-2.0155359613391548</v>
-      </c>
-      <c r="F77" s="1">
         <v>-3.5177820978572714E-2</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C78" s="1">
+        <v>77</v>
+      </c>
       <c r="D78" s="1">
-        <v>77</v>
+        <v>-1.6130769450816556</v>
       </c>
       <c r="E78" s="1">
-        <v>-1.6130769450816556</v>
-      </c>
-      <c r="F78" s="1">
         <v>-2.8153569614825159E-2</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
+        <v>78</v>
+      </c>
       <c r="D79" s="1">
-        <v>78</v>
+        <v>-1.2101399370767929</v>
       </c>
       <c r="E79" s="1">
-        <v>-1.2101399370767929</v>
-      </c>
-      <c r="F79" s="1">
         <v>-2.112097570178029E-2</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <v>79</v>
+      </c>
       <c r="D80" s="1">
-        <v>79</v>
+        <v>-0.80684433681461487</v>
       </c>
       <c r="E80" s="1">
-        <v>-0.80684433681461487</v>
-      </c>
-      <c r="F80" s="1">
         <v>-1.4082123158537746E-2</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
+        <v>80</v>
+      </c>
       <c r="D81" s="1">
-        <v>80</v>
+        <v>-0.40330965004414621</v>
       </c>
       <c r="E81" s="1">
-        <v>-0.40330965004414621</v>
-      </c>
-      <c r="F81" s="1">
         <v>-7.0390977587704989E-3</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
+        <v>81</v>
+      </c>
       <c r="D82" s="1">
-        <v>81</v>
+        <v>3.4454663866145656E-4</v>
       </c>
       <c r="E82" s="1">
-        <v>3.4454663866145656E-4</v>
-      </c>
-      <c r="F82" s="1">
         <v>6.0134873334379548E-6</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
+        <v>82</v>
+      </c>
       <c r="D83" s="1">
-        <v>82</v>
+        <v>0.40399864122440754</v>
       </c>
       <c r="E83" s="1">
-        <v>0.40399864122440754</v>
-      </c>
-      <c r="F83" s="1">
         <v>7.0511229515033266E-3</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="1">
+        <v>83</v>
+      </c>
       <c r="D84" s="1">
-        <v>83</v>
+        <v>0.8075330217339034</v>
       </c>
       <c r="E84" s="1">
-        <v>0.8075330217339034</v>
-      </c>
-      <c r="F84" s="1">
         <v>1.4094143005995728E-2</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
+        <v>84</v>
+      </c>
       <c r="D85" s="1">
-        <v>84</v>
+        <v>1.2108281116619286</v>
       </c>
       <c r="E85" s="1">
-        <v>1.2108281116619286</v>
-      </c>
-      <c r="F85" s="1">
         <v>2.1132986642206194E-2</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="1">
+        <v>85</v>
+      </c>
       <c r="D86" s="1">
-        <v>85</v>
+        <v>1.6137644054107034</v>
       </c>
       <c r="E86" s="1">
-        <v>1.6137644054107034</v>
-      </c>
-      <c r="F86" s="1">
         <v>2.8165568089101475E-2</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="1">
+        <v>86</v>
+      </c>
       <c r="D87" s="1">
-        <v>86</v>
+        <v>2.0162225037018509</v>
       </c>
       <c r="E87" s="1">
-        <v>2.0162225037018509</v>
-      </c>
-      <c r="F87" s="1">
         <v>3.5189803431276305E-2</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C88" s="1">
+        <v>87</v>
+      </c>
       <c r="D88" s="1">
-        <v>87</v>
+        <v>2.4180831489573746</v>
       </c>
       <c r="E88" s="1">
-        <v>2.4180831489573746</v>
-      </c>
-      <c r="F88" s="1">
         <v>4.220361122646938E-2</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C89" s="1">
+        <v>88</v>
+      </c>
       <c r="D89" s="1">
-        <v>88</v>
+        <v>2.8192272606383142</v>
       </c>
       <c r="E89" s="1">
-        <v>2.8192272606383142</v>
-      </c>
-      <c r="F89" s="1">
         <v>4.920491312234071E-2</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C90" s="1">
+        <v>89</v>
+      </c>
       <c r="D90" s="1">
-        <v>89</v>
+        <v>3.2195359705310844</v>
       </c>
       <c r="E90" s="1">
-        <v>3.2195359705310844</v>
-      </c>
-      <c r="F90" s="1">
         <v>5.6191634472335855E-2</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="1">
+        <v>90</v>
+      </c>
       <c r="D91" s="1">
-        <v>90</v>
+        <v>3.6188906579707547</v>
       </c>
       <c r="E91" s="1">
-        <v>3.6188906579707547</v>
-      </c>
-      <c r="F91" s="1">
         <v>6.3161704950449579E-2</v>
       </c>
     </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
+        <v>91</v>
+      </c>
       <c r="D92" s="1">
-        <v>91</v>
+        <v>4.0171729849913032</v>
       </c>
       <c r="E92" s="1">
-        <v>4.0171729849913032</v>
-      </c>
-      <c r="F92" s="1">
         <v>7.0113059164714872E-2</v>
       </c>
     </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="1">
+        <v>92</v>
+      </c>
       <c r="D93" s="1">
-        <v>92</v>
+        <v>4.4142649313915872</v>
       </c>
       <c r="E93" s="1">
-        <v>4.4142649313915872</v>
-      </c>
-      <c r="F93" s="1">
         <v>7.7043637269221157E-2</v>
       </c>
     </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
+        <v>93</v>
+      </c>
       <c r="D94" s="1">
-        <v>93</v>
+        <v>4.8100488297076405</v>
       </c>
       <c r="E94" s="1">
-        <v>4.8100488297076405</v>
-      </c>
-      <c r="F94" s="1">
         <v>8.3951385574497356E-2</v>
       </c>
     </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C95" s="1">
+        <v>94</v>
+      </c>
       <c r="D95" s="1">
-        <v>94</v>
+        <v>5.2044074000802309</v>
       </c>
       <c r="E95" s="1">
-        <v>5.2044074000802309</v>
-      </c>
-      <c r="F95" s="1">
         <v>9.0834257156066966E-2</v>
       </c>
     </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
+        <v>95</v>
+      </c>
       <c r="D96" s="1">
-        <v>95</v>
+        <v>5.5972237850074693</v>
       </c>
       <c r="E96" s="1">
-        <v>5.5972237850074693</v>
-      </c>
-      <c r="F96" s="1">
         <v>9.7690212460997045E-2</v>
       </c>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
+        <v>96</v>
+      </c>
       <c r="D97" s="1">
-        <v>96</v>
+        <v>5.9883815839724557</v>
       </c>
       <c r="E97" s="1">
-        <v>5.9883815839724557</v>
-      </c>
-      <c r="F97" s="1">
         <v>0.10451721991226592</v>
       </c>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="1">
+        <v>97</v>
+      </c>
       <c r="D98" s="1">
-        <v>97</v>
+        <v>6.3777648879354221</v>
       </c>
       <c r="E98" s="1">
-        <v>6.3777648879354221</v>
-      </c>
-      <c r="F98" s="1">
         <v>0.11131325651076622</v>
       </c>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="1">
+        <v>98</v>
+      </c>
       <c r="D99" s="1">
-        <v>98</v>
+        <v>6.7652583136801487</v>
       </c>
       <c r="E99" s="1">
-        <v>6.7652583136801487</v>
-      </c>
-      <c r="F99" s="1">
         <v>0.1180763084347642</v>
       </c>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="1">
+        <v>99</v>
+      </c>
       <c r="D100" s="1">
-        <v>99</v>
+        <v>7.1507470380048757</v>
       </c>
       <c r="E100" s="1">
-        <v>7.1507470380048757</v>
-      </c>
-      <c r="F100" s="1">
         <v>0.1248043716366451</v>
       </c>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
+        <v>100</v>
+      </c>
       <c r="D101" s="1">
-        <v>100</v>
+        <v>7.5341168317467782</v>
       </c>
       <c r="E101" s="1">
-        <v>7.5341168317467782</v>
-      </c>
-      <c r="F101" s="1">
         <v>0.13149545243675376</v>
       </c>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="1">
+        <v>101</v>
+      </c>
       <c r="D102" s="1">
-        <v>101</v>
+        <v>7.9152540936309288</v>
       </c>
       <c r="E102" s="1">
-        <v>7.9152540936309288</v>
-      </c>
-      <c r="F102" s="1">
         <v>0.13814756811417181</v>
       </c>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="1">
+        <v>102</v>
+      </c>
       <c r="D103" s="1">
-        <v>102</v>
+        <v>8.2940458839327675</v>
       </c>
       <c r="E103" s="1">
-        <v>8.2940458839327675</v>
-      </c>
-      <c r="F103" s="1">
         <v>0.14475874749423992</v>
       </c>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="1">
+        <v>103</v>
+      </c>
       <c r="D104" s="1">
-        <v>103</v>
+        <v>8.670379957944931</v>
       </c>
       <c r="E104" s="1">
-        <v>8.670379957944931</v>
-      </c>
-      <c r="F104" s="1">
         <v>0.15132703153266552</v>
       </c>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="1">
+        <v>104</v>
+      </c>
       <c r="D105" s="1">
-        <v>104</v>
+        <v>9.0441447992378201</v>
       </c>
       <c r="E105" s="1">
-        <v>9.0441447992378201</v>
-      </c>
-      <c r="F105" s="1">
         <v>0.15785047389603074</v>
       </c>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="1">
+        <v>105</v>
+      </c>
       <c r="D106" s="1">
-        <v>105</v>
+        <v>9.4152296527044843</v>
       </c>
       <c r="E106" s="1">
-        <v>9.4152296527044843</v>
-      </c>
-      <c r="F106" s="1">
         <v>0.16432714153853559</v>
       </c>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="1">
+        <v>106</v>
+      </c>
       <c r="D107" s="1">
-        <v>106</v>
+        <v>9.7835245573798542</v>
       </c>
       <c r="E107" s="1">
-        <v>9.7835245573798542</v>
-      </c>
-      <c r="F107" s="1">
         <v>0.17075511527480305</v>
       </c>
     </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="1">
+        <v>107</v>
+      </c>
       <c r="D108" s="1">
-        <v>107</v>
+        <v>10.148920379024906</v>
       </c>
       <c r="E108" s="1">
-        <v>10.148920379024906</v>
-      </c>
-      <c r="F108" s="1">
         <v>0.17713249034858136</v>
       </c>
     </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
+        <v>108</v>
+      </c>
       <c r="D109" s="1">
-        <v>108</v>
+        <v>10.511308842465368</v>
       </c>
       <c r="E109" s="1">
-        <v>10.511308842465368</v>
-      </c>
-      <c r="F109" s="1">
         <v>0.18345737699716225</v>
       </c>
     </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="1">
+        <v>109</v>
+      </c>
       <c r="D110" s="1">
-        <v>109</v>
+        <v>10.870582563676365</v>
       </c>
       <c r="E110" s="1">
-        <v>10.870582563676365</v>
-      </c>
-      <c r="F110" s="1">
         <v>0.1897279010113648</v>
       </c>
     </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="1">
+        <v>110</v>
+      </c>
       <c r="D111" s="1">
-        <v>110</v>
+        <v>11.2266350816026</v>
       </c>
       <c r="E111" s="1">
-        <v>11.2266350816026</v>
-      </c>
-      <c r="F111" s="1">
         <v>0.19594220429090403</v>
       </c>
     </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C112" s="1">
+        <v>111</v>
+      </c>
       <c r="D112" s="1">
-        <v>111</v>
+        <v>11.579360889705413</v>
       </c>
       <c r="E112" s="1">
-        <v>11.579360889705413</v>
-      </c>
-      <c r="F112" s="1">
         <v>0.2020984453949918</v>
       </c>
     </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C113" s="1">
+        <v>112</v>
+      </c>
       <c r="D113" s="1">
-        <v>112</v>
+        <v>11.928655467226527</v>
       </c>
       <c r="E113" s="1">
-        <v>11.928655467226527</v>
-      </c>
-      <c r="F113" s="1">
         <v>0.20819480008799363</v>
       </c>
     </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C114" s="1">
+        <v>113</v>
+      </c>
       <c r="D114" s="1">
-        <v>113</v>
+        <v>12.27441531016024</v>
       </c>
       <c r="E114" s="1">
-        <v>12.27441531016024</v>
-      </c>
-      <c r="F114" s="1">
         <v>0.21422946187999672</v>
       </c>
     </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C115" s="1">
+        <v>114</v>
+      </c>
       <c r="D115" s="1">
-        <v>114</v>
+        <v>12.616537961923765</v>
       </c>
       <c r="E115" s="1">
-        <v>12.616537961923765</v>
-      </c>
-      <c r="F115" s="1">
         <v>0.22020064256210944</v>
       </c>
     </row>
-    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C116" s="1">
+        <v>115</v>
+      </c>
       <c r="D116" s="1">
-        <v>115</v>
+        <v>12.954922043717655</v>
       </c>
       <c r="E116" s="1">
-        <v>12.954922043717655</v>
-      </c>
-      <c r="F116" s="1">
         <v>0.22610657273635215</v>
       </c>
     </row>
-    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C117" s="1">
+        <v>116</v>
+      </c>
       <c r="D117" s="1">
-        <v>116</v>
+        <v>13.289467284566639</v>
       </c>
       <c r="E117" s="1">
-        <v>13.289467284566639</v>
-      </c>
-      <c r="F117" s="1">
         <v>0.23194550233996974</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C118" s="1">
+        <v>117</v>
+      </c>
       <c r="D118" s="1">
-        <v>117</v>
+        <v>13.620074551032152</v>
       </c>
       <c r="E118" s="1">
-        <v>13.620074551032152</v>
-      </c>
-      <c r="F118" s="1">
         <v>0.2377157011640145</v>
       </c>
     </row>
-    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C119" s="1">
+        <v>118</v>
+      </c>
       <c r="D119" s="1">
-        <v>118</v>
+        <v>13.946645876587837</v>
       </c>
       <c r="E119" s="1">
-        <v>13.946645876587837</v>
-      </c>
-      <c r="F119" s="1">
         <v>0.24341545936604636</v>
       </c>
     </row>
-    <row r="120" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C120" s="1">
+        <v>119</v>
+      </c>
       <c r="D120" s="1">
-        <v>119</v>
+        <v>14.269084490649446</v>
       </c>
       <c r="E120" s="1">
-        <v>14.269084490649446</v>
-      </c>
-      <c r="F120" s="1">
         <v>0.24904308797680166</v>
       </c>
     </row>
-    <row r="121" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C121" s="1">
+        <v>120</v>
+      </c>
       <c r="D121" s="1">
-        <v>120</v>
+        <v>14.587294847249925</v>
       </c>
       <c r="E121" s="1">
-        <v>14.587294847249925</v>
-      </c>
-      <c r="F121" s="1">
         <v>0.2545969194006687</v>
       </c>
     </row>
-    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C122" s="1">
+        <v>121</v>
+      </c>
       <c r="D122" s="1">
-        <v>121</v>
+        <v>14.901182653352153</v>
       </c>
       <c r="E122" s="1">
-        <v>14.901182653352153</v>
-      </c>
-      <c r="F122" s="1">
         <v>0.26007530790983957</v>
       </c>
     </row>
-    <row r="123" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C123" s="1">
+        <v>122</v>
+      </c>
       <c r="D123" s="1">
-        <v>122</v>
+        <v>15.210654896789885</v>
       </c>
       <c r="E123" s="1">
-        <v>15.210654896789885</v>
-      </c>
-      <c r="F123" s="1">
         <v>0.26547663013197281</v>
       </c>
     </row>
-    <row r="124" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C124" s="1">
+        <v>123</v>
+      </c>
       <c r="D124" s="1">
-        <v>123</v>
+        <v>15.515619873829591</v>
       </c>
       <c r="E124" s="1">
-        <v>15.515619873829591</v>
-      </c>
-      <c r="F124" s="1">
         <v>0.27079928553123911</v>
       </c>
     </row>
-    <row r="125" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C125" s="1">
+        <v>124</v>
+      </c>
       <c r="D125" s="1">
-        <v>124</v>
+        <v>15.815987216344215</v>
       </c>
       <c r="E125" s="1">
-        <v>15.815987216344215</v>
-      </c>
-      <c r="F125" s="1">
         <v>0.27604169688259439</v>
       </c>
     </row>
-    <row r="126" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C126" s="1">
+        <v>125</v>
+      </c>
       <c r="D126" s="1">
-        <v>125</v>
+        <v>16.111667918591504</v>
       </c>
       <c r="E126" s="1">
-        <v>16.111667918591504</v>
-      </c>
-      <c r="F126" s="1">
         <v>0.28120231073915036</v>
       </c>
     </row>
-    <row r="127" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C127" s="1">
+        <v>126</v>
+      </c>
       <c r="D127" s="1">
-        <v>126</v>
+        <v>16.402574363588275</v>
       </c>
       <c r="E127" s="1">
-        <v>16.402574363588275</v>
-      </c>
-      <c r="F127" s="1">
         <v>0.28627959789249402</v>
       </c>
     </row>
-    <row r="128" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C128" s="1">
+        <v>127</v>
+      </c>
       <c r="D128" s="1">
-        <v>127</v>
+        <v>16.688620349073503</v>
       </c>
       <c r="E128" s="1">
-        <v>16.688620349073503</v>
-      </c>
-      <c r="F128" s="1">
         <v>0.29127205382582955</v>
       </c>
     </row>
-    <row r="129" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C129" s="1">
+        <v>128</v>
+      </c>
       <c r="D129" s="1">
-        <v>128</v>
+        <v>16.96972111305184</v>
       </c>
       <c r="E129" s="1">
-        <v>16.96972111305184</v>
-      </c>
-      <c r="F129" s="1">
         <v>0.29617819915979815</v>
       </c>
     </row>
-    <row r="130" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C130" s="1">
+        <v>129</v>
+      </c>
       <c r="D130" s="1">
-        <v>129</v>
+        <v>17.245793358910767</v>
       </c>
       <c r="E130" s="1">
-        <v>17.245793358910767</v>
-      </c>
-      <c r="F130" s="1">
         <v>0.30099658009085589</v>
       </c>
     </row>
-    <row r="131" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C131" s="1">
+        <v>130</v>
+      </c>
       <c r="D131" s="1">
-        <v>130</v>
+        <v>17.516755280103084</v>
       </c>
       <c r="E131" s="1">
-        <v>17.516755280103084</v>
-      </c>
-      <c r="F131" s="1">
         <v>0.30572576882206581</v>
       </c>
     </row>
-    <row r="132" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C132" s="1">
+        <v>131</v>
+      </c>
       <c r="D132" s="1">
-        <v>131</v>
+        <v>17.782526584388222</v>
       </c>
       <c r="E132" s="1">
-        <v>17.782526584388222</v>
-      </c>
-      <c r="F132" s="1">
         <v>0.31036436398618911</v>
       </c>
     </row>
-    <row r="133" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C133" s="1">
+        <v>132</v>
+      </c>
       <c r="D133" s="1">
-        <v>132</v>
+        <v>18.043028517624553</v>
       </c>
       <c r="E133" s="1">
-        <v>18.043028517624553</v>
-      </c>
-      <c r="F133" s="1">
         <v>0.3149109910609405</v>
       </c>
     </row>
-    <row r="134" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C134" s="1">
+        <v>133</v>
+      </c>
       <c r="D134" s="1">
-        <v>133</v>
+        <v>18.298183887106216</v>
       </c>
       <c r="E134" s="1">
-        <v>18.298183887106216</v>
-      </c>
-      <c r="F134" s="1">
         <v>0.3193643027762938</v>
       </c>
     </row>
-    <row r="135" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C135" s="1">
+        <v>134</v>
+      </c>
       <c r="D135" s="1">
-        <v>134</v>
+        <v>18.547917084436868</v>
       </c>
       <c r="E135" s="1">
-        <v>18.547917084436868</v>
-      </c>
-      <c r="F135" s="1">
         <v>0.32372297951370482</v>
       </c>
     </row>
-    <row r="136" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C136" s="1">
+        <v>135</v>
+      </c>
       <c r="D136" s="1">
-        <v>135</v>
+        <v>18.792154107934429</v>
       </c>
       <c r="E136" s="1">
-        <v>18.792154107934429</v>
-      </c>
-      <c r="F136" s="1">
         <v>0.3279857296971489</v>
       </c>
     </row>
-    <row r="137" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C137" s="1">
+        <v>136</v>
+      </c>
       <c r="D137" s="1">
-        <v>136</v>
+        <v>19.030822584559257</v>
       </c>
       <c r="E137" s="1">
-        <v>19.030822584559257</v>
-      </c>
-      <c r="F137" s="1">
         <v>0.33215129017584089</v>
       </c>
     </row>
-    <row r="138" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C138" s="1">
+        <v>137</v>
+      </c>
       <c r="D138" s="1">
-        <v>137</v>
+        <v>19.263851791360093</v>
       </c>
       <c r="E138" s="1">
-        <v>19.263851791360093</v>
-      </c>
-      <c r="F138" s="1">
         <v>0.33621842659853818</v>
       </c>
     </row>
-    <row r="139" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C139" s="1">
+        <v>138</v>
+      </c>
       <c r="D139" s="1">
-        <v>138</v>
+        <v>19.491172676430864</v>
       </c>
       <c r="E139" s="1">
-        <v>19.491172676430864</v>
-      </c>
-      <c r="F139" s="1">
         <v>0.34018593377930667</v>
       </c>
     </row>
-    <row r="140" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140" s="1">
+        <v>139</v>
+      </c>
       <c r="D140" s="1">
-        <v>139</v>
+        <v>19.71271787937231</v>
       </c>
       <c r="E140" s="1">
-        <v>19.71271787937231</v>
-      </c>
-      <c r="F140" s="1">
         <v>0.3440526360546447</v>
       </c>
     </row>
-    <row r="141" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C141" s="1">
+        <v>140</v>
+      </c>
       <c r="D141" s="1">
-        <v>140</v>
+        <v>19.928421751252401</v>
       </c>
       <c r="E141" s="1">
-        <v>19.928421751252401</v>
-      </c>
-      <c r="F141" s="1">
         <v>0.34781738763185854</v>
       </c>
     </row>
-    <row r="142" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C142" s="1">
+        <v>141</v>
+      </c>
       <c r="D142" s="1">
-        <v>141</v>
+        <v>20.138220374059745</v>
       </c>
       <c r="E142" s="1">
-        <v>20.138220374059745</v>
-      </c>
-      <c r="F142" s="1">
         <v>0.35147907292858943</v>
       </c>
     </row>
-    <row r="143" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C143" s="1">
+        <v>142</v>
+      </c>
       <c r="D143" s="1">
-        <v>142</v>
+        <v>20.342051579643801</v>
       </c>
       <c r="E143" s="1">
-        <v>20.342051579643801</v>
-      </c>
-      <c r="F143" s="1">
         <v>0.35503660690338312</v>
       </c>
     </row>
-    <row r="144" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C144" s="1">
+        <v>143</v>
+      </c>
       <c r="D144" s="1">
-        <v>143</v>
+        <v>20.539854968136876</v>
       </c>
       <c r="E144" s="1">
-        <v>20.539854968136876</v>
-      </c>
-      <c r="F144" s="1">
         <v>0.3584889353772156</v>
       </c>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145" s="1">
+        <v>144</v>
+      </c>
       <c r="D145" s="1">
-        <v>144</v>
+        <v>20.731571925851867</v>
       </c>
       <c r="E145" s="1">
-        <v>20.731571925851867</v>
-      </c>
-      <c r="F145" s="1">
         <v>0.36183503534586792</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C146" s="1">
+        <v>145</v>
+      </c>
       <c r="D146" s="1">
-        <v>145</v>
+        <v>20.91714564265094</v>
       </c>
       <c r="E146" s="1">
-        <v>20.91714564265094</v>
-      </c>
-      <c r="F146" s="1">
         <v>0.36507391528306771</v>
       </c>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C147" s="1">
+        <v>146</v>
+      </c>
       <c r="D147" s="1">
-        <v>146</v>
+        <v>21.096521128779596</v>
       </c>
       <c r="E147" s="1">
-        <v>21.096521128779596</v>
-      </c>
-      <c r="F147" s="1">
         <v>0.36820461543429983</v>
       </c>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C148" s="1">
+        <v>147</v>
+      </c>
       <c r="D148" s="1">
-        <v>147</v>
+        <v>21.269645231161508</v>
       </c>
       <c r="E148" s="1">
-        <v>21.269645231161508</v>
-      </c>
-      <c r="F148" s="1">
         <v>0.37122620810120549</v>
       </c>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C149" s="1">
+        <v>148</v>
+      </c>
       <c r="D149" s="1">
-        <v>148</v>
+        <v>21.436466649148876</v>
       </c>
       <c r="E149" s="1">
-        <v>21.436466649148876</v>
-      </c>
-      <c r="F149" s="1">
         <v>0.37413779791647833</v>
       </c>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C150" s="1">
+        <v>149</v>
+      </c>
       <c r="D150" s="1">
-        <v>149</v>
+        <v>21.596935949724084</v>
       </c>
       <c r="E150" s="1">
-        <v>21.596935949724084</v>
-      </c>
-      <c r="F150" s="1">
         <v>0.37693852210918433</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C151" s="1">
+        <v>150</v>
+      </c>
       <c r="D151" s="1">
-        <v>150</v>
+        <v>21.751005582147751</v>
       </c>
       <c r="E151" s="1">
-        <v>21.751005582147751</v>
-      </c>
-      <c r="F151" s="1">
         <v>0.37962755076041876</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152" s="1">
+        <v>151</v>
+      </c>
       <c r="D152" s="1">
-        <v>151</v>
+        <v>21.898629892049211</v>
       </c>
       <c r="E152" s="1">
-        <v>21.898629892049211</v>
-      </c>
-      <c r="F152" s="1">
         <v>0.3822040870492322</v>
       </c>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C153" s="1">
+        <v>152</v>
+      </c>
       <c r="D153" s="1">
-        <v>152</v>
+        <v>22.039765134954841</v>
       </c>
       <c r="E153" s="1">
-        <v>22.039765134954841</v>
-      </c>
-      <c r="F153" s="1">
         <v>0.38466736748874514</v>
       </c>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C154" s="1">
+        <v>153</v>
+      </c>
       <c r="D154" s="1">
-        <v>153</v>
+        <v>22.174369489250644</v>
       </c>
       <c r="E154" s="1">
-        <v>22.174369489250644</v>
-      </c>
-      <c r="F154" s="1">
         <v>0.38701666215238789</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155" s="1">
+        <v>154</v>
+      </c>
       <c r="D155" s="1">
-        <v>154</v>
+        <v>22.302403068574893</v>
       </c>
       <c r="E155" s="1">
-        <v>22.302403068574893</v>
-      </c>
-      <c r="F155" s="1">
         <v>0.38925127489019384</v>
       </c>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C156" s="1">
+        <v>155</v>
+      </c>
       <c r="D156" s="1">
-        <v>155</v>
+        <v>22.423827933637419</v>
       </c>
       <c r="E156" s="1">
-        <v>22.423827933637419</v>
-      </c>
-      <c r="F156" s="1">
         <v>0.39137054353508505</v>
       </c>
     </row>
-    <row r="157" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157" s="1">
+        <v>156</v>
+      </c>
       <c r="D157" s="1">
-        <v>156</v>
+        <v>22.538608103461872</v>
       </c>
       <c r="E157" s="1">
-        <v>22.538608103461872</v>
-      </c>
-      <c r="F157" s="1">
         <v>0.39337384009908782</v>
       </c>
     </row>
-    <row r="158" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C158" s="1">
+        <v>157</v>
+      </c>
       <c r="D158" s="1">
-        <v>157</v>
+        <v>22.646709566047701</v>
       </c>
       <c r="E158" s="1">
-        <v>22.646709566047701</v>
-      </c>
-      <c r="F158" s="1">
         <v>0.39526057095941919</v>
       </c>
     </row>
-    <row r="159" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C159" s="1">
+        <v>158</v>
+      </c>
       <c r="D159" s="1">
-        <v>158</v>
+        <v>22.748100288448718</v>
       </c>
       <c r="E159" s="1">
-        <v>22.748100288448718</v>
-      </c>
-      <c r="F159" s="1">
         <v>0.39703017703439158</v>
       </c>
     </row>
-    <row r="160" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C160" s="1">
+        <v>159</v>
+      </c>
       <c r="D160" s="1">
-        <v>159</v>
+        <v>22.842750226265156</v>
       </c>
       <c r="E160" s="1">
-        <v>22.842750226265156</v>
-      </c>
-      <c r="F160" s="1">
         <v>0.3986821339490812</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C161" s="1">
+        <v>160</v>
+      </c>
       <c r="D161" s="1">
-        <v>160</v>
+        <v>22.930631332546586</v>
       </c>
       <c r="E161" s="1">
-        <v>22.930631332546586</v>
-      </c>
-      <c r="F161" s="1">
         <v>0.4002159521907131</v>
       </c>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C162" s="1">
+        <v>161</v>
+      </c>
       <c r="D162" s="1">
-        <v>161</v>
+        <v>23.011717566102778</v>
       </c>
       <c r="E162" s="1">
-        <v>23.011717566102778</v>
-      </c>
-      <c r="F162" s="1">
         <v>0.40163117725371378</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C163" s="1">
+        <v>162</v>
+      </c>
       <c r="D163" s="1">
-        <v>162</v>
+        <v>23.085984899220392</v>
       </c>
       <c r="E163" s="1">
-        <v>23.085984899220392</v>
-      </c>
-      <c r="F163" s="1">
         <v>0.40292738977439324</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C164" s="1">
+        <v>163</v>
+      </c>
       <c r="D164" s="1">
-        <v>163</v>
+        <v>23.153411324782873</v>
       </c>
       <c r="E164" s="1">
-        <v>23.153411324782873</v>
-      </c>
-      <c r="F164" s="1">
         <v>0.40410420565521038</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C165" s="1">
+        <v>164</v>
+      </c>
       <c r="D165" s="1">
-        <v>164</v>
+        <v>23.2139768627917</v>
       </c>
       <c r="E165" s="1">
-        <v>23.2139768627917</v>
-      </c>
-      <c r="F165" s="1">
         <v>0.4051612761785911</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C166" s="1">
+        <v>165</v>
+      </c>
       <c r="D166" s="1">
-        <v>165</v>
+        <v>23.267663566286927</v>
       </c>
       <c r="E166" s="1">
-        <v>23.267663566286927</v>
-      </c>
-      <c r="F166" s="1">
         <v>0.40609828811026111</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C167" s="1">
+        <v>166</v>
+      </c>
       <c r="D167" s="1">
-        <v>166</v>
+        <v>23.314455526665245</v>
       </c>
       <c r="E167" s="1">
-        <v>23.314455526665245</v>
-      </c>
-      <c r="F167" s="1">
         <v>0.4069149637920641</v>
       </c>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C168" s="1">
+        <v>167</v>
+      </c>
       <c r="D168" s="1">
-        <v>167</v>
+        <v>23.354338878394099</v>
       </c>
       <c r="E168" s="1">
-        <v>23.354338878394099</v>
-      </c>
-      <c r="F168" s="1">
         <v>0.40761106122423835</v>
       </c>
     </row>
-    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C169" s="1">
+        <v>168</v>
+      </c>
       <c r="D169" s="1">
-        <v>168</v>
+        <v>23.387301803120348</v>
       </c>
       <c r="E169" s="1">
-        <v>23.387301803120348</v>
-      </c>
-      <c r="F169" s="1">
         <v>0.40818637413712716</v>
       </c>
     </row>
-    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C170" s="1">
+        <v>169</v>
+      </c>
       <c r="D170" s="1">
-        <v>169</v>
+        <v>23.413334533172314</v>
       </c>
       <c r="E170" s="1">
-        <v>23.413334533172314</v>
-      </c>
-      <c r="F170" s="1">
         <v>0.40864073205230078</v>
       </c>
     </row>
-    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C171" s="1">
+        <v>170</v>
+      </c>
       <c r="D171" s="1">
-        <v>170</v>
+        <v>23.432429354454175</v>
       </c>
       <c r="E171" s="1">
-        <v>23.432429354454175</v>
-      </c>
-      <c r="F171" s="1">
         <v>0.40897400033307352</v>
       </c>
     </row>
-    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C172" s="1">
+        <v>171</v>
+      </c>
       <c r="D172" s="1">
-        <v>171</v>
+        <v>23.444580608731822</v>
       </c>
       <c r="E172" s="1">
-        <v>23.444580608731822</v>
-      </c>
-      <c r="F172" s="1">
         <v>0.4091860802243994</v>
       </c>
     </row>
-    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C173" s="1">
+        <v>172</v>
+      </c>
       <c r="D173" s="1">
-        <v>172</v>
+        <v>23.449784695309528</v>
       </c>
       <c r="E173" s="1">
-        <v>23.449784695309528</v>
-      </c>
-      <c r="F173" s="1">
         <v>0.40927690888213564</v>
       </c>
     </row>
-    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C174" s="1">
+        <v>173</v>
+      </c>
       <c r="D174" s="1">
-        <v>173</v>
+        <v>23.448040072096919</v>
       </c>
       <c r="E174" s="1">
-        <v>23.448040072096919</v>
-      </c>
-      <c r="F174" s="1">
         <v>0.40924645939166493</v>
       </c>
     </row>
-    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C175" s="1">
+        <v>174</v>
+      </c>
       <c r="D175" s="1">
-        <v>174</v>
+        <v>23.439347256065915</v>
       </c>
       <c r="E175" s="1">
-        <v>23.439347256065915</v>
-      </c>
-      <c r="F175" s="1">
         <v>0.40909474077587044</v>
       </c>
     </row>
-    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C176" s="1">
+        <v>175</v>
+      </c>
       <c r="D176" s="1">
-        <v>175</v>
+        <v>23.423708823097567</v>
       </c>
       <c r="E176" s="1">
-        <v>23.423708823097567</v>
-      </c>
-      <c r="F176" s="1">
         <v>0.40882179799246288</v>
       </c>
     </row>
-    <row r="177" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C177" s="1">
+        <v>176</v>
+      </c>
       <c r="D177" s="1">
-        <v>176</v>
+        <v>23.401129407218733</v>
       </c>
       <c r="E177" s="1">
-        <v>23.401129407218733</v>
-      </c>
-      <c r="F177" s="1">
         <v>0.40842771192065763</v>
       </c>
     </row>
-    <row r="178" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C178" s="1">
+        <v>177</v>
+      </c>
       <c r="D178" s="1">
-        <v>177</v>
+        <v>23.37161569922894</v>
       </c>
       <c r="E178" s="1">
-        <v>23.37161569922894</v>
-      </c>
-      <c r="F178" s="1">
         <v>0.40791259933720914</v>
       </c>
     </row>
-    <row r="179" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C179" s="1">
+        <v>178</v>
+      </c>
       <c r="D179" s="1">
-        <v>178</v>
+        <v>23.335176444717714</v>
       </c>
       <c r="E179" s="1">
-        <v>23.335176444717714</v>
-      </c>
-      <c r="F179" s="1">
         <v>0.40727661288180644</v>
       </c>
     </row>
-    <row r="180" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C180" s="1">
+        <v>179</v>
+      </c>
       <c r="D180" s="1">
-        <v>179</v>
+        <v>23.291822441473101</v>
       </c>
       <c r="E180" s="1">
-        <v>23.291822441473101</v>
-      </c>
-      <c r="F180" s="1">
         <v>0.40651994101184385</v>
       </c>
     </row>
-    <row r="181" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C181" s="1">
+        <v>180</v>
+      </c>
       <c r="D181" s="1">
-        <v>180</v>
+        <v>23.241566536281987</v>
       </c>
       <c r="E181" s="1">
-        <v>23.241566536281987</v>
-      </c>
-      <c r="F181" s="1">
         <v>0.40564280794657492</v>
       </c>
     </row>
-    <row r="182" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C182" s="1">
+        <v>181</v>
+      </c>
       <c r="D182" s="1">
-        <v>181</v>
+        <v>23.184423621123351</v>
       </c>
       <c r="E182" s="1">
-        <v>23.184423621123351</v>
-      </c>
-      <c r="F182" s="1">
         <v>0.40464547360067282</v>
       </c>
     </row>
-    <row r="183" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C183" s="1">
+        <v>182</v>
+      </c>
       <c r="D183" s="1">
-        <v>182</v>
+        <v>23.120410628755387</v>
       </c>
       <c r="E183" s="1">
-        <v>23.120410628755387</v>
-      </c>
-      <c r="F183" s="1">
         <v>0.40352823350721068</v>
       </c>
     </row>
-    <row r="184" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C184" s="1">
+        <v>183</v>
+      </c>
       <c r="D184" s="1">
-        <v>183</v>
+        <v>23.049546527697945</v>
       </c>
       <c r="E184" s="1">
-        <v>23.049546527697945</v>
-      </c>
-      <c r="F184" s="1">
         <v>0.40229141873008811</v>
       </c>
     </row>
-    <row r="185" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C185" s="1">
+        <v>184</v>
+      </c>
       <c r="D185" s="1">
-        <v>184</v>
+        <v>22.971852316611749</v>
       </c>
       <c r="E185" s="1">
-        <v>22.971852316611749</v>
-      </c>
-      <c r="F185" s="1">
         <v>0.40093539576593035</v>
       </c>
     </row>
-    <row r="186" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C186" s="1">
+        <v>185</v>
+      </c>
       <c r="D186" s="1">
-        <v>185</v>
+        <v>22.887351018076018</v>
       </c>
       <c r="E186" s="1">
-        <v>22.887351018076018</v>
-      </c>
-      <c r="F186" s="1">
         <v>0.39946056643548677</v>
       </c>
     </row>
-    <row r="187" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C187" s="1">
+        <v>186</v>
+      </c>
       <c r="D187" s="1">
-        <v>186</v>
+        <v>22.796067671766259</v>
       </c>
       <c r="E187" s="1">
-        <v>22.796067671766259</v>
-      </c>
-      <c r="F187" s="1">
         <v>0.3978673677645605</v>
       </c>
     </row>
-    <row r="188" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C188" s="1">
+        <v>187</v>
+      </c>
       <c r="D188" s="1">
-        <v>187</v>
+        <v>22.698029327034572</v>
       </c>
       <c r="E188" s="1">
-        <v>22.698029327034572</v>
-      </c>
-      <c r="F188" s="1">
         <v>0.39615627185451008</v>
       </c>
     </row>
-    <row r="189" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C189" s="1">
+        <v>188</v>
+      </c>
       <c r="D189" s="1">
-        <v>188</v>
+        <v>22.593265034894195</v>
       </c>
       <c r="E189" s="1">
-        <v>22.593265034894195</v>
-      </c>
-      <c r="F189" s="1">
         <v>0.39432778574235328</v>
       </c>
     </row>
-    <row r="190" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C190" s="1">
+        <v>189</v>
+      </c>
       <c r="D190" s="1">
-        <v>189</v>
+        <v>22.481805839411077</v>
       </c>
       <c r="E190" s="1">
-        <v>22.481805839411077</v>
-      </c>
-      <c r="F190" s="1">
         <v>0.39238245125052129</v>
       </c>
     </row>
-    <row r="191" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C191" s="1">
+        <v>190</v>
+      </c>
       <c r="D191" s="1">
-        <v>190</v>
+        <v>22.363684768504786</v>
       </c>
       <c r="E191" s="1">
-        <v>22.363684768504786</v>
-      </c>
-      <c r="F191" s="1">
         <v>0.39032084482630353</v>
       </c>
     </row>
-    <row r="192" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C192" s="1">
+        <v>191</v>
+      </c>
       <c r="D192" s="1">
-        <v>191</v>
+        <v>22.238936824161591</v>
       </c>
       <c r="E192" s="1">
-        <v>22.238936824161591</v>
-      </c>
-      <c r="F192" s="1">
         <v>0.38814357737103367</v>
       </c>
     </row>
-    <row r="193" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C193" s="1">
+        <v>192</v>
+      </c>
       <c r="D193" s="1">
-        <v>192</v>
+        <v>22.107598972062558</v>
       </c>
       <c r="E193" s="1">
-        <v>22.107598972062558</v>
-      </c>
-      <c r="F193" s="1">
         <v>0.38585129405906515</v>
       </c>
     </row>
-    <row r="194" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C194" s="1">
+        <v>193</v>
+      </c>
       <c r="D194" s="1">
-        <v>193</v>
+        <v>21.969710130629792</v>
       </c>
       <c r="E194" s="1">
-        <v>21.969710130629792</v>
-      </c>
-      <c r="F194" s="1">
         <v>0.38344467414659195</v>
       </c>
     </row>
-    <row r="195" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C195" s="1">
+        <v>194</v>
+      </c>
       <c r="D195" s="1">
-        <v>194</v>
+        <v>21.825311159493943</v>
       </c>
       <c r="E195" s="1">
-        <v>21.825311159493943</v>
-      </c>
-      <c r="F195" s="1">
         <v>0.38092443077036758</v>
       </c>
     </row>
-    <row r="196" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C196" s="1">
+        <v>195</v>
+      </c>
       <c r="D196" s="1">
-        <v>195</v>
+        <v>21.674444847386699</v>
       </c>
       <c r="E196" s="1">
-        <v>21.674444847386699</v>
-      </c>
-      <c r="F196" s="1">
         <v>0.37829131073638916</v>
       </c>
     </row>
-    <row r="197" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C197" s="1">
+        <v>196</v>
+      </c>
       <c r="D197" s="1">
-        <v>196</v>
+        <v>21.517155899461358</v>
       </c>
       <c r="E197" s="1">
-        <v>21.517155899461358</v>
-      </c>
-      <c r="F197" s="1">
         <v>0.37554609429859886</v>
       </c>
     </row>
-    <row r="198" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C198" s="1">
+        <v>197</v>
+      </c>
       <c r="D198" s="1">
-        <v>197</v>
+        <v>21.353490924045737</v>
       </c>
       <c r="E198" s="1">
-        <v>21.353490924045737</v>
-      </c>
-      <c r="F198" s="1">
         <v>0.37268959492767822</v>
       </c>
     </row>
-    <row r="199" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C199" s="1">
+        <v>198</v>
+      </c>
       <c r="D199" s="1">
-        <v>198</v>
+        <v>21.183498418831043</v>
       </c>
       <c r="E199" s="1">
-        <v>21.183498418831043</v>
-      </c>
-      <c r="F199" s="1">
         <v>0.36972265906999779</v>
       </c>
     </row>
-    <row r="200" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C200" s="1">
+        <v>199</v>
+      </c>
       <c r="D200" s="1">
-        <v>199</v>
+        <v>21.007228756500893</v>
       </c>
       <c r="E200" s="1">
-        <v>21.007228756500893</v>
-      </c>
-      <c r="F200" s="1">
         <v>0.36664616589679555</v>
       </c>
     </row>
-    <row r="201" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C201" s="1">
+        <v>200</v>
+      </c>
       <c r="D201" s="1">
-        <v>200</v>
+        <v>20.824734169804721</v>
       </c>
       <c r="E201" s="1">
-        <v>20.824734169804721</v>
-      </c>
-      <c r="F201" s="1">
         <v>0.36346102704365835</v>
       </c>
     </row>
-    <row r="202" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C202" s="1">
+        <v>201</v>
+      </c>
       <c r="D202" s="1">
-        <v>201</v>
+        <v>20.636068736080027</v>
       </c>
       <c r="E202" s="1">
-        <v>20.636068736080027</v>
-      </c>
-      <c r="F202" s="1">
         <v>0.36016818634038339</v>
       </c>
     </row>
-    <row r="203" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C203" s="1">
+        <v>202</v>
+      </c>
       <c r="D203" s="1">
-        <v>202</v>
+        <v>20.441288361228018</v>
       </c>
       <c r="E203" s="1">
-        <v>20.441288361228018</v>
-      </c>
-      <c r="F203" s="1">
         <v>0.35676861953129968</v>
       </c>
     </row>
-    <row r="204" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C204" s="1">
+        <v>203</v>
+      </c>
       <c r="D204" s="1">
-        <v>203</v>
+        <v>20.240450763147397</v>
       </c>
       <c r="E204" s="1">
-        <v>20.240450763147397</v>
-      </c>
-      <c r="F204" s="1">
         <v>0.35326333398613258</v>
       </c>
     </row>
-    <row r="205" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C205" s="1">
+        <v>204</v>
+      </c>
       <c r="D205" s="1">
-        <v>204</v>
+        <v>20.033615454631228</v>
       </c>
       <c r="E205" s="1">
-        <v>20.033615454631228</v>
-      </c>
-      <c r="F205" s="1">
         <v>0.34965336840149702</v>
       </c>
     </row>
-    <row r="206" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C206" s="1">
+        <v>205</v>
+      </c>
       <c r="D206" s="1">
-        <v>205</v>
+        <v>19.820843725731937</v>
       </c>
       <c r="E206" s="1">
-        <v>19.820843725731937</v>
-      </c>
-      <c r="F206" s="1">
         <v>0.34593979249310808</v>
       </c>
     </row>
-    <row r="207" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C207" s="1">
+        <v>206</v>
+      </c>
       <c r="D207" s="1">
-        <v>206</v>
+        <v>19.602198625599648</v>
       </c>
       <c r="E207" s="1">
-        <v>19.602198625599648</v>
-      </c>
-      <c r="F207" s="1">
         <v>0.34212370667879916</v>
       </c>
     </row>
-    <row r="208" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C208" s="1">
+        <v>207</v>
+      </c>
       <c r="D208" s="1">
-        <v>207</v>
+        <v>19.377744943799289</v>
       </c>
       <c r="E208" s="1">
-        <v>19.377744943799289</v>
-      </c>
-      <c r="F208" s="1">
         <v>0.33820624175244363</v>
       </c>
     </row>
-    <row r="209" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C209" s="1">
+        <v>208</v>
+      </c>
       <c r="D209" s="1">
-        <v>208</v>
+        <v>19.147549191111931</v>
       </c>
       <c r="E209" s="1">
-        <v>19.147549191111931</v>
-      </c>
-      <c r="F209" s="1">
         <v>0.33418855854887358</v>
       </c>
     </row>
-    <row r="210" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C210" s="1">
+        <v>209</v>
+      </c>
       <c r="D210" s="1">
-        <v>209</v>
+        <v>18.911679579826139</v>
       </c>
       <c r="E210" s="1">
-        <v>18.911679579826139</v>
-      </c>
-      <c r="F210" s="1">
         <v>0.33007184759989888</v>
       </c>
     </row>
-    <row r="211" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C211" s="1">
+        <v>210</v>
+      </c>
       <c r="D211" s="1">
-        <v>210</v>
+        <v>18.670206003525095</v>
       </c>
       <c r="E211" s="1">
-        <v>18.670206003525095</v>
-      </c>
-      <c r="F211" s="1">
         <v>0.32585732878152462</v>
       </c>
     </row>
-    <row r="212" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C212" s="1">
+        <v>211</v>
+      </c>
       <c r="D212" s="1">
-        <v>211</v>
+        <v>18.423200016375525</v>
       </c>
       <c r="E212" s="1">
-        <v>18.423200016375525</v>
-      </c>
-      <c r="F212" s="1">
         <v>0.32154625095247413</v>
       </c>
     </row>
-    <row r="213" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C213" s="1">
+        <v>212</v>
+      </c>
       <c r="D213" s="1">
-        <v>212</v>
+        <v>18.170734811924525</v>
       </c>
       <c r="E213" s="1">
-        <v>18.170734811924525</v>
-      </c>
-      <c r="F213" s="1">
         <v>0.3171398915841227</v>
       </c>
     </row>
-    <row r="214" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C214" s="1">
+        <v>213</v>
+      </c>
       <c r="D214" s="1">
-        <v>213</v>
+        <v>17.912885201410774</v>
       </c>
       <c r="E214" s="1">
-        <v>17.912885201410774</v>
-      </c>
-      <c r="F214" s="1">
         <v>0.31263955638195606</v>
       </c>
     </row>
-    <row r="215" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C215" s="1">
+        <v>214</v>
+      </c>
       <c r="D215" s="1">
-        <v>214</v>
+        <v>17.649727591595969</v>
       </c>
       <c r="E215" s="1">
-        <v>17.649727591595969</v>
-      </c>
-      <c r="F215" s="1">
         <v>0.308046578898655</v>
       </c>
     </row>
-    <row r="216" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C216" s="1">
+        <v>215</v>
+      </c>
       <c r="D216" s="1">
-        <v>215</v>
+        <v>17.381339962124024</v>
       </c>
       <c r="E216" s="1">
-        <v>17.381339962124024</v>
-      </c>
-      <c r="F216" s="1">
         <v>0.30336232013893799</v>
       </c>
     </row>
-    <row r="217" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C217" s="1">
+        <v>216</v>
+      </c>
       <c r="D217" s="1">
-        <v>216</v>
+        <v>17.107801842413767</v>
       </c>
       <c r="E217" s="1">
-        <v>17.107801842413767</v>
-      </c>
-      <c r="F217" s="1">
         <v>0.2985881681562616</v>
       </c>
     </row>
-    <row r="218" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C218" s="1">
+        <v>217</v>
+      </c>
       <c r="D218" s="1">
-        <v>217</v>
+        <v>16.829194288092587</v>
       </c>
       <c r="E218" s="1">
-        <v>16.829194288092587</v>
-      </c>
-      <c r="F218" s="1">
         <v>0.29372553764150927</v>
       </c>
     </row>
-    <row r="219" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C219" s="1">
+        <v>218</v>
+      </c>
       <c r="D219" s="1">
-        <v>218</v>
+        <v>16.545599856977766</v>
       </c>
       <c r="E219" s="1">
-        <v>16.545599856977766</v>
-      </c>
-      <c r="F219" s="1">
         <v>0.28877586950378531</v>
       </c>
     </row>
-    <row r="220" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C220" s="1">
+        <v>219</v>
+      </c>
       <c r="D220" s="1">
-        <v>219</v>
+        <v>16.257102584612728</v>
       </c>
       <c r="E220" s="1">
-        <v>16.257102584612728</v>
-      </c>
-      <c r="F220" s="1">
         <v>0.28374063044344083</v>
       </c>
     </row>
-    <row r="221" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C221" s="1">
+        <v>220</v>
+      </c>
       <c r="D221" s="1">
-        <v>220</v>
+        <v>15.963787959365332</v>
       </c>
       <c r="E221" s="1">
-        <v>15.963787959365332</v>
-      </c>
-      <c r="F221" s="1">
         <v>0.27862131251745625</v>
       </c>
     </row>
-    <row r="222" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C222" s="1">
+        <v>221</v>
+      </c>
       <c r="D222" s="1">
-        <v>221</v>
+        <v>15.665742897095859</v>
       </c>
       <c r="E222" s="1">
-        <v>15.665742897095859</v>
-      </c>
-      <c r="F222" s="1">
         <v>0.27341943269731306</v>
       </c>
     </row>
-    <row r="223" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C223" s="1">
+        <v>222</v>
+      </c>
       <c r="D223" s="1">
-        <v>222</v>
+        <v>15.363055715401519</v>
       </c>
       <c r="E223" s="1">
-        <v>15.363055715401519</v>
-      </c>
-      <c r="F223" s="1">
         <v>0.26813653241947449</v>
       </c>
     </row>
-    <row r="224" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C224" s="1">
+        <v>223</v>
+      </c>
       <c r="D224" s="1">
-        <v>223</v>
+        <v>15.055816107446331</v>
       </c>
       <c r="E224" s="1">
-        <v>15.055816107446331</v>
-      </c>
-      <c r="F224" s="1">
         <v>0.26277417712862994</v>
       </c>
     </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C225" s="1">
+        <v>224</v>
+      </c>
       <c r="D225" s="1">
-        <v>224</v>
+        <v>14.744115115382657</v>
       </c>
       <c r="E225" s="1">
-        <v>14.744115115382657</v>
-      </c>
-      <c r="F225" s="1">
         <v>0.25733395581381197</v>
       </c>
     </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C226" s="1">
+        <v>225</v>
+      </c>
       <c r="D226" s="1">
-        <v>225</v>
+        <v>14.428045103373471</v>
       </c>
       <c r="E226" s="1">
-        <v>14.428045103373471</v>
-      </c>
-      <c r="F226" s="1">
         <v>0.25181748053754499</v>
       </c>
     </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C227" s="1">
+        <v>226</v>
+      </c>
       <c r="D227" s="1">
-        <v>226</v>
+        <v>14.107699730222725</v>
       </c>
       <c r="E227" s="1">
-        <v>14.107699730222725</v>
-      </c>
-      <c r="F227" s="1">
         <v>0.24622638595815394</v>
       </c>
     </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C228" s="1">
+        <v>227</v>
+      </c>
       <c r="D228" s="1">
-        <v>227</v>
+        <v>13.783173921621987</v>
       </c>
       <c r="E228" s="1">
-        <v>13.783173921621987</v>
-      </c>
-      <c r="F228" s="1">
         <v>0.24056232884537576</v>
       </c>
     </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C229" s="1">
+        <v>228</v>
+      </c>
       <c r="D229" s="1">
-        <v>228</v>
+        <v>13.454563842021948</v>
       </c>
       <c r="E229" s="1">
-        <v>13.454563842021948</v>
-      </c>
-      <c r="F229" s="1">
         <v>0.23482698758942305</v>
       </c>
     </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C230" s="1">
+        <v>229</v>
+      </c>
       <c r="D230" s="1">
-        <v>229</v>
+        <v>13.12196686613658</v>
       </c>
       <c r="E230" s="1">
-        <v>13.12196686613658</v>
-      </c>
-      <c r="F230" s="1">
         <v>0.22902206170363712</v>
       </c>
     </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C231" s="1">
+        <v>230</v>
+      </c>
       <c r="D231" s="1">
-        <v>230</v>
+        <v>12.785481550088786</v>
       </c>
       <c r="E231" s="1">
-        <v>12.785481550088786</v>
-      </c>
-      <c r="F231" s="1">
         <v>0.22314927132088291</v>
       </c>
     </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C232" s="1">
+        <v>231</v>
+      </c>
       <c r="D232" s="1">
-        <v>231</v>
+        <v>12.445207602205938</v>
       </c>
       <c r="E232" s="1">
-        <v>12.445207602205938</v>
-      </c>
-      <c r="F232" s="1">
         <v>0.21721035668383432</v>
       </c>
     </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C233" s="1">
+        <v>232</v>
+      </c>
       <c r="D233" s="1">
-        <v>232</v>
+        <v>12.10124585347417</v>
       </c>
       <c r="E233" s="1">
-        <v>12.10124585347417</v>
-      </c>
-      <c r="F233" s="1">
         <v>0.21120707762930249</v>
       </c>
     </row>
-    <row r="234" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C234" s="1">
+        <v>233</v>
+      </c>
       <c r="D234" s="1">
-        <v>233</v>
+        <v>11.753698227659463</v>
       </c>
       <c r="E234" s="1">
-        <v>11.753698227659463</v>
-      </c>
-      <c r="F234" s="1">
         <v>0.20514121306674982</v>
       </c>
     </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C235" s="1">
+        <v>234</v>
+      </c>
       <c r="D235" s="1">
-        <v>234</v>
+        <v>11.402667711105821</v>
       </c>
       <c r="E235" s="1">
-        <v>11.402667711105821</v>
-      </c>
-      <c r="F235" s="1">
         <v>0.19901456045116689</v>
       </c>
     </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C236" s="1">
+        <v>235</v>
+      </c>
       <c r="D236" s="1">
-        <v>235</v>
+        <v>11.048258322217478</v>
       </c>
       <c r="E236" s="1">
-        <v>11.048258322217478</v>
-      </c>
-      <c r="F236" s="1">
         <v>0.19282893525043573</v>
       </c>
     </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C237" s="1">
+        <v>236</v>
+      </c>
       <c r="D237" s="1">
-        <v>236</v>
+        <v>10.690575080636407</v>
       </c>
       <c r="E237" s="1">
-        <v>10.690575080636407</v>
-      </c>
-      <c r="F237" s="1">
         <v>0.18658617040737407</v>
       </c>
     </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C238" s="1">
+        <v>237</v>
+      </c>
       <c r="D238" s="1">
-        <v>237</v>
+        <v>10.329723976122208</v>
       </c>
       <c r="E238" s="1">
-        <v>10.329723976122208</v>
-      </c>
-      <c r="F238" s="1">
         <v>0.1802881157965863</v>
       </c>
     </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C239" s="1">
+        <v>238</v>
+      </c>
       <c r="D239" s="1">
-        <v>238</v>
+        <v>9.9658119371449185</v>
       </c>
       <c r="E239" s="1">
-        <v>9.9658119371449185</v>
-      </c>
-      <c r="F239" s="1">
         <v>0.17393663767630263</v>
       </c>
     </row>
-    <row r="240" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C240" s="1">
+        <v>239</v>
+      </c>
       <c r="D240" s="1">
-        <v>239</v>
+        <v>9.5989467991999824</v>
       </c>
       <c r="E240" s="1">
-        <v>9.5989467991999824</v>
-      </c>
-      <c r="F240" s="1">
         <v>0.16753361813537035</v>
       </c>
     </row>
-    <row r="241" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C241" s="1">
+        <v>240</v>
+      </c>
       <c r="D241" s="1">
-        <v>240</v>
+        <v>9.2292372728537853</v>
       </c>
       <c r="E241" s="1">
-        <v>9.2292372728537853</v>
-      </c>
-      <c r="F241" s="1">
         <v>0.16108095453554139</v>
       </c>
     </row>
-    <row r="242" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C242" s="1">
+        <v>241</v>
+      </c>
       <c r="D242" s="1">
-        <v>241</v>
+        <v>8.856792911530242</v>
       </c>
       <c r="E242" s="1">
-        <v>8.856792911530242</v>
-      </c>
-      <c r="F242" s="1">
         <v>0.15458055894924114</v>
       </c>
     </row>
-    <row r="243" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C243" s="1">
+        <v>242</v>
+      </c>
       <c r="D243" s="1">
-        <v>242</v>
+        <v>8.4817240790477637</v>
       </c>
       <c r="E243" s="1">
-        <v>8.4817240790477637</v>
-      </c>
-      <c r="F243" s="1">
         <v>0.14803435759298028</v>
       </c>
     </row>
-    <row r="244" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C244" s="1">
+        <v>243</v>
+      </c>
       <c r="D244" s="1">
-        <v>243</v>
+        <v>8.1041419169159195</v>
       </c>
       <c r="E244" s="1">
-        <v>8.1041419169159195</v>
-      </c>
-      <c r="F244" s="1">
         <v>0.14144429025657251</v>
       </c>
     </row>
-    <row r="245" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C245" s="1">
+        <v>244</v>
+      </c>
       <c r="D245" s="1">
-        <v>244</v>
+        <v>7.7241583114014629</v>
       </c>
       <c r="E245" s="1">
-        <v>7.7241583114014629</v>
-      </c>
-      <c r="F245" s="1">
         <v>0.13481230972832686</v>
       </c>
     </row>
-    <row r="246" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C246" s="1">
+        <v>245</v>
+      </c>
       <c r="D246" s="1">
-        <v>245</v>
+        <v>7.3418858603740587</v>
       </c>
       <c r="E246" s="1">
-        <v>7.3418858603740587</v>
-      </c>
-      <c r="F246" s="1">
         <v>0.12814038121639523</v>
       </c>
     </row>
-    <row r="247" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C247" s="1">
+        <v>246</v>
+      </c>
       <c r="D247" s="1">
-        <v>246</v>
+        <v>6.9574378399406633</v>
       </c>
       <c r="E247" s="1">
-        <v>6.9574378399406633</v>
-      </c>
-      <c r="F247" s="1">
         <v>0.12143048176643105</v>
       </c>
     </row>
-    <row r="248" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C248" s="1">
+        <v>247</v>
+      </c>
       <c r="D248" s="1">
-        <v>247</v>
+        <v>6.5709281708798164</v>
       </c>
       <c r="E248" s="1">
-        <v>6.5709281708798164</v>
-      </c>
-      <c r="F248" s="1">
         <v>0.11468459967575573</v>
       </c>
     </row>
-    <row r="249" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C249" s="1">
+        <v>248</v>
+      </c>
       <c r="D249" s="1">
-        <v>248</v>
+        <v>6.182471384883498</v>
       </c>
       <c r="E249" s="1">
-        <v>6.182471384883498</v>
-      </c>
-      <c r="F249" s="1">
         <v>0.10790473390416665</v>
       </c>
     </row>
-    <row r="250" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C250" s="1">
+        <v>249</v>
+      </c>
       <c r="D250" s="1">
-        <v>249</v>
+        <v>5.7921825906193547</v>
       </c>
       <c r="E250" s="1">
-        <v>5.7921825906193547</v>
-      </c>
-      <c r="F250" s="1">
         <v>0.1010928934816098</v>
       </c>
     </row>
-    <row r="251" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C251" s="1">
+        <v>250</v>
+      </c>
       <c r="D251" s="1">
-        <v>250</v>
+        <v>5.400177439621122</v>
       </c>
       <c r="E251" s="1">
-        <v>5.400177439621122</v>
-      </c>
-      <c r="F251" s="1">
         <v>9.4251096912853979E-2</v>
       </c>
     </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C252" s="1">
+        <v>251</v>
+      </c>
       <c r="D252" s="1">
-        <v>251</v>
+        <v>5.0065720920184544</v>
       </c>
       <c r="E252" s="1">
-        <v>5.0065720920184544</v>
-      </c>
-      <c r="F252" s="1">
         <v>8.7381371579362085E-2</v>
       </c>
     </row>
-    <row r="253" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C253" s="1">
+        <v>252</v>
+      </c>
       <c r="D253" s="1">
-        <v>252</v>
+        <v>4.6114831821160145</v>
       </c>
       <c r="E253" s="1">
-        <v>4.6114831821160145</v>
-      </c>
-      <c r="F253" s="1">
         <v>8.0485753138531513E-2</v>
       </c>
     </row>
-    <row r="254" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C254" s="1">
+        <v>253</v>
+      </c>
       <c r="D254" s="1">
-        <v>253</v>
+        <v>4.2150277838320882</v>
       </c>
       <c r="E254" s="1">
-        <v>4.2150277838320882</v>
-      </c>
-      <c r="F254" s="1">
         <v>7.3566284920482714E-2</v>
       </c>
     </row>
-    <row r="255" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C255" s="1">
+        <v>254</v>
+      </c>
       <c r="D255" s="1">
-        <v>254</v>
+        <v>3.8173233760066485</v>
       </c>
       <c r="E255" s="1">
-        <v>3.8173233760066485</v>
-      </c>
-      <c r="F255" s="1">
         <v>6.6625017322569369E-2</v>
       </c>
     </row>
-    <row r="256" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C256" s="1">
+        <v>255</v>
+      </c>
       <c r="D256" s="1">
-        <v>255</v>
+        <v>3.418487807590294</v>
       </c>
       <c r="E256" s="1">
-        <v>3.418487807590294</v>
-      </c>
-      <c r="F256" s="1">
         <v>5.9664007201809269E-2</v>
       </c>
     </row>
-    <row r="257" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C257" s="1">
+        <v>256</v>
+      </c>
       <c r="D257" s="1">
-        <v>256</v>
+        <v>3.0186392627220742</v>
       </c>
       <c r="E257" s="1">
-        <v>3.0186392627220742</v>
-      </c>
-      <c r="F257" s="1">
         <v>5.2685317265375939E-2</v>
       </c>
     </row>
-    <row r="258" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C258" s="1">
+        <v>257</v>
+      </c>
       <c r="D258" s="1">
-        <v>257</v>
+        <v>2.6178962257094338</v>
       </c>
       <c r="E258" s="1">
-        <v>2.6178962257094338</v>
-      </c>
-      <c r="F258" s="1">
         <v>4.5691015459381985E-2</v>
       </c>
     </row>
-    <row r="259" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C259" s="1">
+        <v>258</v>
+      </c>
       <c r="D259" s="1">
-        <v>258</v>
+        <v>2.2163774459183414</v>
       </c>
       <c r="E259" s="1">
-        <v>2.2163774459183414</v>
-      </c>
-      <c r="F259" s="1">
         <v>3.8683174356094786E-2</v>
       </c>
     </row>
-    <row r="260" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C260" s="1">
+        <v>259</v>
+      </c>
       <c r="D260" s="1">
-        <v>259</v>
+        <v>1.8142019025851701</v>
       </c>
       <c r="E260" s="1">
-        <v>1.8142019025851701</v>
-      </c>
-      <c r="F260" s="1">
         <v>3.1663870539786504E-2</v>
       </c>
     </row>
-    <row r="261" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C261" s="1">
+        <v>260</v>
+      </c>
       <c r="D261" s="1">
-        <v>260</v>
+        <v>1.4114887695604128</v>
       </c>
       <c r="E261" s="1">
-        <v>1.4114887695604128</v>
-      </c>
-      <c r="F261" s="1">
         <v>2.4635183991394402E-2</v>
       </c>
     </row>
-    <row r="262" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C262" s="1">
+        <v>261</v>
+      </c>
       <c r="D262" s="1">
-        <v>261</v>
+        <v>1.0083573799947358</v>
       </c>
       <c r="E262" s="1">
-        <v>1.0083573799947358</v>
-      </c>
-      <c r="F262" s="1">
         <v>1.7599197472174789E-2</v>
       </c>
     </row>
-    <row r="263" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C263" s="1">
+        <v>262</v>
+      </c>
       <c r="D263" s="1">
-        <v>262</v>
+        <v>0.60492719097778325</v>
       </c>
       <c r="E263" s="1">
-        <v>0.60492719097778325</v>
-      </c>
-      <c r="F263" s="1">
         <v>1.0557995906532244E-2</v>
       </c>
     </row>
-    <row r="264" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C264" s="1">
+        <v>263</v>
+      </c>
       <c r="D264" s="1">
-        <v>263</v>
+        <v>0.20131774814050613</v>
       </c>
       <c r="E264" s="1">
-        <v>0.20131774814050613</v>
-      </c>
-      <c r="F264" s="1">
         <v>3.5136657642122998E-3</v>
       </c>
     </row>
-    <row r="265" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C265" s="1">
+        <v>264</v>
+      </c>
       <c r="D265" s="1">
-        <v>264</v>
+        <v>-0.20235134976937066</v>
       </c>
       <c r="E265" s="1">
-        <v>-0.20235134976937066</v>
-      </c>
-      <c r="F265" s="1">
         <v>-3.5317055579747497E-3</v>
       </c>
     </row>
-    <row r="266" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C266" s="1">
+        <v>265</v>
+      </c>
       <c r="D266" s="1">
-        <v>265</v>
+        <v>-0.60596048632678756</v>
       </c>
       <c r="E266" s="1">
-        <v>-0.60596048632678756</v>
-      </c>
-      <c r="F266" s="1">
         <v>-1.0576030354690199E-2</v>
       </c>
     </row>
-    <row r="267" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C267" s="1">
+        <v>266</v>
+      </c>
       <c r="D267" s="1">
-        <v>266</v>
+        <v>-1.0093900628746939</v>
       </c>
       <c r="E267" s="1">
-        <v>-1.0093900628746939</v>
-      </c>
-      <c r="F267" s="1">
         <v>-1.7617221230706324E-2</v>
       </c>
     </row>
-    <row r="268" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C268" s="1">
+        <v>267</v>
+      </c>
       <c r="D268" s="1">
-        <v>267</v>
+        <v>-1.4125205339636691</v>
       </c>
       <c r="E268" s="1">
-        <v>-1.4125205339636691</v>
-      </c>
-      <c r="F268" s="1">
         <v>-2.4653191719445907E-2</v>
       </c>
     </row>
-    <row r="269" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C269" s="1">
+        <v>268</v>
+      </c>
       <c r="D269" s="1">
-        <v>268</v>
+        <v>-1.8152324427761934</v>
       </c>
       <c r="E269" s="1">
-        <v>-1.8152324427761934</v>
-      </c>
-      <c r="F269" s="1">
         <v>-3.168185690125383E-2</v>
       </c>
     </row>
-    <row r="270" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C270" s="1">
+        <v>269</v>
+      </c>
       <c r="D270" s="1">
-        <v>269</v>
+        <v>-2.2174064565244458</v>
       </c>
       <c r="E270" s="1">
-        <v>-2.2174064565244458</v>
-      </c>
-      <c r="F270" s="1">
         <v>-3.870113402120666E-2</v>
       </c>
     </row>
-    <row r="271" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C271" s="1">
+        <v>270</v>
+      </c>
       <c r="D271" s="1">
-        <v>270</v>
+        <v>-2.6189234018111835</v>
       </c>
       <c r="E271" s="1">
-        <v>-2.6189234018111835</v>
-      </c>
-      <c r="F271" s="1">
         <v>-4.570894310627785E-2</v>
       </c>
     </row>
-    <row r="272" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C272" s="1">
+        <v>271</v>
+      </c>
       <c r="D272" s="1">
-        <v>271</v>
+        <v>-3.0196642999435159</v>
       </c>
       <c r="E272" s="1">
-        <v>-3.0196642999435159</v>
-      </c>
-      <c r="F272" s="1">
         <v>-5.270320758168083E-2</v>
       </c>
     </row>
-    <row r="273" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C273" s="1">
+        <v>272</v>
+      </c>
       <c r="D273" s="1">
-        <v>272</v>
+        <v>-3.4195104021893981</v>
       </c>
       <c r="E273" s="1">
-        <v>-3.4195104021893981</v>
-      </c>
-      <c r="F273" s="1">
         <v>-5.9681854886212291E-2</v>
       </c>
     </row>
-    <row r="274" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C274" s="1">
+        <v>273</v>
+      </c>
       <c r="D274" s="1">
-        <v>273</v>
+        <v>-3.8183432249651901</v>
       </c>
       <c r="E274" s="1">
-        <v>-3.8183432249651901</v>
-      </c>
-      <c r="F274" s="1">
         <v>-6.6642817086392442E-2</v>
       </c>
     </row>
-    <row r="275" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C275" s="1">
+        <v>274</v>
+      </c>
       <c r="D275" s="1">
-        <v>274</v>
+        <v>-4.2160445849453145</v>
       </c>
       <c r="E275" s="1">
-        <v>-4.2160445849453145</v>
-      </c>
-      <c r="F275" s="1">
         <v>-7.3584031489245555E-2</v>
       </c>
     </row>
-    <row r="276" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C276" s="1">
+        <v>275</v>
+      </c>
       <c r="D276" s="1">
-        <v>275</v>
+        <v>-4.6124966340824844</v>
       </c>
       <c r="E276" s="1">
-        <v>-4.6124966340824844</v>
-      </c>
-      <c r="F276" s="1">
         <v>-8.0503441253519631E-2</v>
       </c>
     </row>
-    <row r="277" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C277" s="1">
+        <v>276</v>
+      </c>
       <c r="D277" s="1">
-        <v>276</v>
+        <v>-5.0075818945289923</v>
       </c>
       <c r="E277" s="1">
-        <v>-5.0075818945289923</v>
-      </c>
-      <c r="F277" s="1">
         <v>-8.7398995999179344E-2</v>
       </c>
     </row>
-    <row r="278" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C278" s="1">
+        <v>277</v>
+      </c>
       <c r="D278" s="1">
-        <v>277</v>
+        <v>-5.4011832934480921</v>
       </c>
       <c r="E278" s="1">
-        <v>-5.4011832934480921</v>
-      </c>
-      <c r="F278" s="1">
         <v>-9.4268652414980697E-2</v>
       </c>
     </row>
-    <row r="279" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C279" s="1">
+        <v>278</v>
+      </c>
       <c r="D279" s="1">
-        <v>278</v>
+        <v>-5.7931841977052061</v>
       </c>
       <c r="E279" s="1">
-        <v>-5.7931841977052061</v>
-      </c>
-      <c r="F279" s="1">
         <v>-0.10111037486394819</v>
       </c>
     </row>
-    <row r="280" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C280" s="1">
+        <v>279</v>
+      </c>
       <c r="D280" s="1">
-        <v>279</v>
+        <v>-6.1834684484290063</v>
       </c>
       <c r="E280" s="1">
-        <v>-6.1834684484290063</v>
-      </c>
-      <c r="F280" s="1">
         <v>-0.10792213598658093</v>
       </c>
     </row>
-    <row r="281" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C281" s="1">
+        <v>280</v>
+      </c>
       <c r="D281" s="1">
-        <v>280</v>
+        <v>-6.5719203954321532</v>
       </c>
       <c r="E281" s="1">
-        <v>-6.5719203954321532</v>
-      </c>
-      <c r="F281" s="1">
         <v>-0.11470191730160918</v>
       </c>
     </row>
-    <row r="282" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C282" s="1">
+        <v>281</v>
+      </c>
       <c r="D282" s="1">
-        <v>281</v>
+        <v>-6.9584249314809039</v>
       </c>
       <c r="E282" s="1">
-        <v>-6.9584249314809039</v>
-      </c>
-      <c r="F282" s="1">
         <v>-0.12144770980411337</v>
       </c>
     </row>
-    <row r="283" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C283" s="1">
+        <v>282</v>
+      </c>
       <c r="D283" s="1">
-        <v>282</v>
+        <v>-7.3428675264042687</v>
       </c>
       <c r="E283" s="1">
-        <v>-7.3428675264042687</v>
-      </c>
-      <c r="F283" s="1">
         <v>-0.12815751456084251</v>
       </c>
     </row>
-    <row r="284" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C284" s="1">
+        <v>283</v>
+      </c>
       <c r="D284" s="1">
-        <v>283</v>
+        <v>-7.7251342610315312</v>
       </c>
       <c r="E284" s="1">
-        <v>-7.7251342610315312</v>
-      </c>
-      <c r="F284" s="1">
         <v>-0.13482934330253699</v>
       </c>
     </row>
-    <row r="285" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C285" s="1">
+        <v>284</v>
+      </c>
       <c r="D285" s="1">
-        <v>284</v>
+        <v>-8.1051118609494761</v>
       </c>
       <c r="E285" s="1">
-        <v>-8.1051118609494761</v>
-      </c>
-      <c r="F285" s="1">
         <v>-0.14146121901310485</v>
       </c>
     </row>
-    <row r="286" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C286" s="1">
+        <v>285</v>
+      </c>
       <c r="D286" s="1">
-        <v>285</v>
+        <v>-8.4826877300681538</v>
       </c>
       <c r="E286" s="1">
-        <v>-8.4826877300681538</v>
-      </c>
-      <c r="F286" s="1">
         <v>-0.14805117651545618</v>
       </c>
     </row>
-    <row r="287" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C287" s="1">
+        <v>286</v>
+      </c>
       <c r="D287" s="1">
-        <v>286</v>
+        <v>-8.8577499839855367</v>
       </c>
       <c r="E287" s="1">
-        <v>-8.8577499839855367</v>
-      </c>
-      <c r="F287" s="1">
         <v>-0.15459726305382757</v>
       </c>
     </row>
-    <row r="288" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C288" s="1">
+        <v>287</v>
+      </c>
       <c r="D288" s="1">
-        <v>287</v>
+        <v>-9.2301874831414334</v>
       </c>
       <c r="E288" s="1">
-        <v>-9.2301874831414334</v>
-      </c>
-      <c r="F288" s="1">
         <v>-0.16109753887242848</v>
       </c>
     </row>
-    <row r="289" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C289" s="1">
+        <v>288</v>
+      </c>
       <c r="D289" s="1">
-        <v>288</v>
+        <v>-9.5998898657508906</v>
       </c>
       <c r="E289" s="1">
-        <v>-9.5998898657508906</v>
-      </c>
-      <c r="F289" s="1">
         <v>-0.16755007779023887</v>
       </c>
     </row>
-    <row r="290" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C290" s="1">
+        <v>289</v>
+      </c>
       <c r="D290" s="1">
-        <v>289</v>
+        <v>-9.9667475805067305</v>
       </c>
       <c r="E290" s="1">
-        <v>-9.9667475805067305</v>
-      </c>
-      <c r="F290" s="1">
         <v>-0.17395296777177746</v>
       </c>
     </row>
-    <row r="291" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C291" s="1">
+        <v>290</v>
+      </c>
       <c r="D291" s="1">
-        <v>290</v>
+        <v>-10.330651919042383</v>
       </c>
       <c r="E291" s="1">
-        <v>-10.330651919042383</v>
-      </c>
-      <c r="F291" s="1">
         <v>-0.18030431149368639</v>
       </c>
     </row>
-    <row r="292" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C292" s="1">
+        <v>291</v>
+      </c>
       <c r="D292" s="1">
-        <v>291</v>
+        <v>-10.691495048144105</v>
       </c>
       <c r="E292" s="1">
-        <v>-10.691495048144105</v>
-      </c>
-      <c r="F292" s="1">
         <v>-0.18660222690694181</v>
       </c>
     </row>
-    <row r="293" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C293" s="1">
+        <v>292</v>
+      </c>
       <c r="D293" s="1">
-        <v>292</v>
+        <v>-11.049170041705199</v>
       </c>
       <c r="E293" s="1">
-        <v>-11.049170041705199</v>
-      </c>
-      <c r="F293" s="1">
         <v>-0.19284484779456143</v>
       </c>
     </row>
-    <row r="294" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C294" s="1">
+        <v>293</v>
+      </c>
       <c r="D294" s="1">
-        <v>293</v>
+        <v>-11.403570912410101</v>
       </c>
       <c r="E294" s="1">
-        <v>-11.403570912410101</v>
-      </c>
-      <c r="F294" s="1">
         <v>-0.19903032432459764</v>
       </c>
     </row>
-    <row r="295" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C295" s="1">
+        <v>294</v>
+      </c>
       <c r="D295" s="1">
-        <v>294</v>
+        <v>-11.754592643141088</v>
       </c>
       <c r="E295" s="1">
-        <v>-11.754592643141088</v>
-      </c>
-      <c r="F295" s="1">
         <v>-0.2051568235982891</v>
       </c>
     </row>
-    <row r="296" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C296" s="1">
+        <v>295</v>
+      </c>
       <c r="D296" s="1">
-        <v>295</v>
+        <v>-12.102131218097217</v>
       </c>
       <c r="E296" s="1">
-        <v>-12.102131218097217</v>
-      </c>
-      <c r="F296" s="1">
         <v>-0.21122253019319007</v>
       </c>
     </row>
-    <row r="297" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C297" s="1">
+        <v>296</v>
+      </c>
       <c r="D297" s="1">
-        <v>296</v>
+        <v>-12.446083653616606</v>
       </c>
       <c r="E297" s="1">
-        <v>-12.446083653616606</v>
-      </c>
-      <c r="F297" s="1">
         <v>-0.21722564670112182</v>
       </c>
     </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C298" s="1">
+        <v>297</v>
+      </c>
       <c r="D298" s="1">
-        <v>297</v>
+        <v>-12.786348028692819</v>
       </c>
       <c r="E298" s="1">
-        <v>-12.786348028692819</v>
-      </c>
-      <c r="F298" s="1">
         <v>-0.22316439426078533</v>
       </c>
     </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C299" s="1">
+        <v>298</v>
+      </c>
       <c r="D299" s="1">
-        <v>298</v>
+        <v>-13.1228235151766</v>
       </c>
       <c r="E299" s="1">
-        <v>-13.1228235151766</v>
-      </c>
-      <c r="F299" s="1">
         <v>-0.22903701308488225</v>
       </c>
     </row>
-    <row r="300" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C300" s="1">
+        <v>299</v>
+      </c>
       <c r="D300" s="1">
-        <v>299</v>
+        <v>-13.455410407653071</v>
       </c>
       <c r="E300" s="1">
-        <v>-13.455410407653071</v>
-      </c>
-      <c r="F300" s="1">
         <v>-0.23484176298157158</v>
       </c>
     </row>
-    <row r="301" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C301" s="1">
+        <v>300</v>
+      </c>
       <c r="D301" s="1">
-        <v>300</v>
+        <v>-13.784010152987403</v>
       </c>
       <c r="E301" s="1">
-        <v>-13.784010152987403</v>
-      </c>
-      <c r="F301" s="1">
         <v>-0.24057692387014012</v>
       </c>
     </row>
-    <row r="302" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C302" s="1">
+        <v>301</v>
+      </c>
       <c r="D302" s="1">
-        <v>301</v>
+        <v>-14.108525379527878</v>
       </c>
       <c r="E302" s="1">
-        <v>-14.108525379527878</v>
-      </c>
-      <c r="F302" s="1">
         <v>-0.24624079629069323</v>
       </c>
     </row>
-    <row r="303" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C303" s="1">
+        <v>302</v>
+      </c>
       <c r="D303" s="1">
-        <v>302</v>
+        <v>-14.428859925959538</v>
       </c>
       <c r="E303" s="1">
-        <v>-14.428859925959538</v>
-      </c>
-      <c r="F303" s="1">
         <v>-0.25183170190774712</v>
       </c>
     </row>
-    <row r="304" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C304" s="1">
+        <v>303</v>
+      </c>
       <c r="D304" s="1">
-        <v>303</v>
+        <v>-14.74491886979896</v>
       </c>
       <c r="E304" s="1">
-        <v>-14.74491886979896</v>
-      </c>
-      <c r="F304" s="1">
         <v>-0.25734798400755787</v>
       </c>
     </row>
-    <row r="305" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C305" s="1">
+        <v>304</v>
+      </c>
       <c r="D305" s="1">
-        <v>304</v>
+        <v>-15.056608555521974</v>
       </c>
       <c r="E305" s="1">
-        <v>-15.056608555521974</v>
-      </c>
-      <c r="F305" s="1">
         <v>-0.26278800798904356</v>
       </c>
     </row>
-    <row r="306" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C306" s="1">
+        <v>305</v>
+      </c>
       <c r="D306" s="1">
-        <v>305</v>
+        <v>-15.363836622315938</v>
       </c>
       <c r="E306" s="1">
-        <v>-15.363836622315938</v>
-      </c>
-      <c r="F306" s="1">
         <v>-0.26815016184815416</v>
       </c>
     </row>
-    <row r="307" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C307" s="1">
+        <v>306</v>
+      </c>
       <c r="D307" s="1">
-        <v>306</v>
+        <v>-15.66651203144837</v>
       </c>
       <c r="E307" s="1">
-        <v>-15.66651203144837</v>
-      </c>
-      <c r="F307" s="1">
         <v>-0.27343285665554556</v>
       </c>
     </row>
-    <row r="308" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C308" s="1">
+        <v>307</v>
+      </c>
       <c r="D308" s="1">
-        <v>307</v>
+        <v>-15.964545093243819</v>
       </c>
       <c r="E308" s="1">
-        <v>-15.964545093243819</v>
-      </c>
-      <c r="F308" s="1">
         <v>-0.27863452702741542</v>
       </c>
     </row>
-    <row r="309" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C309" s="1">
+        <v>308</v>
+      </c>
       <c r="D309" s="1">
-        <v>308</v>
+        <v>-16.257847493660979</v>
       </c>
       <c r="E309" s="1">
-        <v>-16.257847493660979</v>
-      </c>
-      <c r="F309" s="1">
         <v>-0.28375363158936295</v>
       </c>
     </row>
-    <row r="310" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C310" s="1">
+        <v>309</v>
+      </c>
       <c r="D310" s="1">
-        <v>309</v>
+        <v>-16.546332320462149</v>
       </c>
       <c r="E310" s="1">
-        <v>-16.546332320462149</v>
-      </c>
-      <c r="F310" s="1">
         <v>-0.2887886534331327</v>
       </c>
     </row>
-    <row r="311" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C311" s="1">
+        <v>310</v>
+      </c>
       <c r="D311" s="1">
-        <v>310</v>
+        <v>-16.829914088967346</v>
       </c>
       <c r="E311" s="1">
-        <v>-16.829914088967346</v>
-      </c>
-      <c r="F311" s="1">
         <v>-0.29373810056611011</v>
       </c>
     </row>
-    <row r="312" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C312" s="1">
+        <v>311</v>
+      </c>
       <c r="D312" s="1">
-        <v>311</v>
+        <v>-17.108508767385402</v>
       </c>
       <c r="E312" s="1">
-        <v>-17.108508767385402</v>
-      </c>
-      <c r="F312" s="1">
         <v>-0.29860050635343321</v>
       </c>
     </row>
-    <row r="313" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C313" s="1">
+        <v>312</v>
+      </c>
       <c r="D313" s="1">
-        <v>312</v>
+        <v>-17.382033801714371</v>
       </c>
       <c r="E313" s="1">
-        <v>-17.382033801714371</v>
-      </c>
-      <c r="F313" s="1">
         <v>-0.30337442995258812</v>
       </c>
     </row>
-    <row r="314" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C314" s="1">
+        <v>313</v>
+      </c>
       <c r="D314" s="1">
-        <v>313</v>
+        <v>-17.650408140204451</v>
       </c>
       <c r="E314" s="1">
-        <v>-17.650408140204451</v>
-      </c>
-      <c r="F314" s="1">
         <v>-0.30805845674036836</v>
       </c>
     </row>
-    <row r="315" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C315" s="1">
+        <v>314</v>
+      </c>
       <c r="D315" s="1">
-        <v>314</v>
+        <v>-17.913552257375205</v>
       </c>
       <c r="E315" s="1">
-        <v>-17.913552257375205</v>
-      </c>
-      <c r="F315" s="1">
         <v>-0.31265119873205527</v>
       </c>
     </row>
-    <row r="316" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C316" s="1">
+        <v>315</v>
+      </c>
       <c r="D316" s="1">
-        <v>315</v>
+        <v>-18.171388177580933</v>
       </c>
       <c r="E316" s="1">
-        <v>-18.171388177580933</v>
-      </c>
-      <c r="F316" s="1">
         <v>-0.31715129499271255</v>
       </c>
     </row>
-    <row r="317" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C317" s="1">
+        <v>316</v>
+      </c>
       <c r="D317" s="1">
-        <v>316</v>
+        <v>-18.423839498116603</v>
       </c>
       <c r="E317" s="1">
-        <v>-18.423839498116603</v>
-      </c>
-      <c r="F317" s="1">
         <v>-0.32155741204046173</v>
       </c>
     </row>
-    <row r="318" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C318" s="1">
+        <v>317</v>
+      </c>
       <c r="D318" s="1">
-        <v>317</v>
+        <v>-18.670831411857744</v>
       </c>
       <c r="E318" s="1">
-        <v>-18.670831411857744</v>
-      </c>
-      <c r="F318" s="1">
         <v>-0.32586824424162381</v>
       </c>
     </row>
-    <row r="319" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C319" s="1">
+        <v>318</v>
+      </c>
       <c r="D319" s="1">
-        <v>318</v>
+        <v>-18.912290729427504</v>
       </c>
       <c r="E319" s="1">
-        <v>-18.912290729427504</v>
-      </c>
-      <c r="F319" s="1">
         <v>-0.33008251419760803</v>
       </c>
     </row>
-    <row r="320" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C320" s="1">
+        <v>319</v>
+      </c>
       <c r="D320" s="1">
-        <v>319</v>
+        <v>-19.148145900884376</v>
       </c>
       <c r="E320" s="1">
-        <v>-19.148145900884376</v>
-      </c>
-      <c r="F320" s="1">
         <v>-0.33419897312343527</v>
       </c>
     </row>
-    <row r="321" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C321" s="1">
+        <v>320</v>
+      </c>
       <c r="D321" s="1">
-        <v>320</v>
+        <v>-19.378327036923952</v>
       </c>
       <c r="E321" s="1">
-        <v>-19.378327036923952</v>
-      </c>
-      <c r="F321" s="1">
         <v>-0.33821640121777935</v>
       </c>
     </row>
-    <row r="322" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C322" s="1">
+        <v>321</v>
+      </c>
       <c r="D322" s="1">
-        <v>321</v>
+        <v>-19.602765929588994</v>
       </c>
       <c r="E322" s="1">
-        <v>-19.602765929588994</v>
-      </c>
-      <c r="F322" s="1">
         <v>-0.34213360802442655</v>
       </c>
     </row>
-    <row r="323" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C323" s="1">
+        <v>322</v>
+      </c>
       <c r="D323" s="1">
-        <v>322</v>
+        <v>-19.821396072480763</v>
       </c>
       <c r="E323" s="1">
-        <v>-19.821396072480763</v>
-      </c>
-      <c r="F323" s="1">
         <v>-0.34594943278503087</v>
       </c>
     </row>
-    <row r="324" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C324" s="1">
+        <v>323</v>
+      </c>
       <c r="D324" s="1">
-        <v>323</v>
+        <v>-20.034152680466526</v>
       </c>
       <c r="E324" s="1">
-        <v>-20.034152680466526</v>
-      </c>
-      <c r="F324" s="1">
         <v>-0.34966274478307574</v>
       </c>
     </row>
-    <row r="325" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C325" s="1">
+        <v>324</v>
+      </c>
       <c r="D325" s="1">
-        <v>324</v>
+        <v>-20.240972708876793</v>
       </c>
       <c r="E325" s="1">
-        <v>-20.240972708876793</v>
-      </c>
-      <c r="F325" s="1">
         <v>-0.35327244367892963</v>
       </c>
     </row>
-    <row r="326" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C326" s="1">
+        <v>325</v>
+      </c>
       <c r="D326" s="1">
-        <v>325</v>
+        <v>-20.441794872187007</v>
       </c>
       <c r="E326" s="1">
-        <v>-20.441794872187007</v>
-      </c>
-      <c r="F326" s="1">
         <v>-0.35677745983590387</v>
       </c>
     </row>
-    <row r="327" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C327" s="1">
+        <v>326</v>
+      </c>
       <c r="D327" s="1">
-        <v>326</v>
+        <v>-20.636559662177756</v>
       </c>
       <c r="E327" s="1">
-        <v>-20.636559662177756</v>
-      </c>
-      <c r="F327" s="1">
         <v>-0.36017675463720911</v>
       </c>
     </row>
-    <row r="328" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C328" s="1">
+        <v>327</v>
+      </c>
       <c r="D328" s="1">
-        <v>327</v>
+        <v>-20.825209365568551</v>
       </c>
       <c r="E328" s="1">
-        <v>-20.825209365568551</v>
-      </c>
-      <c r="F328" s="1">
         <v>-0.36346932079372307</v>
       </c>
     </row>
-    <row r="329" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C329" s="1">
+        <v>328</v>
+      </c>
       <c r="D329" s="1">
-        <v>328</v>
+        <v>-21.007688081119365</v>
       </c>
       <c r="E329" s="1">
-        <v>-21.007688081119365</v>
-      </c>
-      <c r="F329" s="1">
         <v>-0.36665418264246996</v>
       </c>
     </row>
-    <row r="330" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C330" s="1">
+        <v>329</v>
+      </c>
       <c r="D330" s="1">
-        <v>329</v>
+        <v>-21.183941736195745</v>
       </c>
       <c r="E330" s="1">
-        <v>-21.183941736195745</v>
-      </c>
-      <c r="F330" s="1">
         <v>-0.36973039643573641</v>
       </c>
     </row>
-    <row r="331" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C331" s="1">
+        <v>330</v>
+      </c>
       <c r="D331" s="1">
-        <v>330</v>
+        <v>-21.35391810279155</v>
       </c>
       <c r="E331" s="1">
-        <v>-21.35391810279155</v>
-      </c>
-      <c r="F331" s="1">
         <v>-0.37269705062072184</v>
       </c>
     </row>
-    <row r="332" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C332" s="1">
+        <v>331</v>
+      </c>
       <c r="D332" s="1">
-        <v>331</v>
+        <v>-21.517566813005427</v>
       </c>
       <c r="E332" s="1">
-        <v>-21.517566813005427</v>
-      </c>
-      <c r="F332" s="1">
         <v>-0.37555326610965467</v>
       </c>
     </row>
-    <row r="333" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C333" s="1">
+        <v>332</v>
+      </c>
       <c r="D333" s="1">
-        <v>332</v>
+        <v>-21.674839373965884</v>
       </c>
       <c r="E333" s="1">
-        <v>-21.674839373965884</v>
-      </c>
-      <c r="F333" s="1">
         <v>-0.37829819654028451</v>
       </c>
     </row>
-    <row r="334" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C334" s="1">
+        <v>333</v>
+      </c>
       <c r="D334" s="1">
-        <v>333</v>
+        <v>-21.825689182200961</v>
       </c>
       <c r="E334" s="1">
-        <v>-21.825689182200961</v>
-      </c>
-      <c r="F334" s="1">
         <v>-0.38093102852668081</v>
       </c>
     </row>
-    <row r="335" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C335" s="1">
+        <v>334</v>
+      </c>
       <c r="D335" s="1">
-        <v>334</v>
+        <v>-21.970071537447797</v>
       </c>
       <c r="E335" s="1">
-        <v>-21.970071537447797</v>
-      </c>
-      <c r="F335" s="1">
         <v>-0.38345098190025551</v>
       </c>
     </row>
-    <row r="336" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C336" s="1">
+        <v>335</v>
+      </c>
       <c r="D336" s="1">
-        <v>335</v>
+        <v>-22.107943655898474</v>
       </c>
       <c r="E336" s="1">
-        <v>-22.107943655898474</v>
-      </c>
-      <c r="F336" s="1">
         <v>-0.38585730994094802</v>
       </c>
     </row>
-    <row r="337" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C337" s="1">
+        <v>336</v>
+      </c>
       <c r="D337" s="1">
-        <v>336</v>
+        <v>-22.23926468287765</v>
       </c>
       <c r="E337" s="1">
-        <v>-22.23926468287765</v>
-      </c>
-      <c r="F337" s="1">
         <v>-0.3881492995984912</v>
       </c>
     </row>
-    <row r="338" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C338" s="1">
+        <v>337</v>
+      </c>
       <c r="D338" s="1">
-        <v>337</v>
+        <v>-22.36399570494892</v>
       </c>
       <c r="E338" s="1">
-        <v>-22.36399570494892</v>
-      </c>
-      <c r="F338" s="1">
         <v>-0.39032627170370848</v>
       </c>
     </row>
-    <row r="339" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C339" s="1">
+        <v>338</v>
+      </c>
       <c r="D339" s="1">
-        <v>338</v>
+        <v>-22.482099761445674</v>
       </c>
       <c r="E339" s="1">
-        <v>-22.482099761445674</v>
-      </c>
-      <c r="F339" s="1">
         <v>-0.39238758116976513</v>
       </c>
     </row>
-    <row r="340" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C340" s="1">
+        <v>339</v>
+      </c>
       <c r="D340" s="1">
-        <v>339</v>
+        <v>-22.593541855423407</v>
       </c>
       <c r="E340" s="1">
-        <v>-22.593541855423407</v>
-      </c>
-      <c r="F340" s="1">
         <v>-0.39433261718332324</v>
       </c>
     </row>
-    <row r="341" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C341" s="1">
+        <v>340</v>
+      </c>
       <c r="D341" s="1">
-        <v>340</v>
+        <v>-22.698288964030116</v>
       </c>
       <c r="E341" s="1">
-        <v>-22.698288964030116</v>
-      </c>
-      <c r="F341" s="1">
         <v>-0.396160803385539</v>
       </c>
     </row>
-    <row r="342" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C342" s="1">
+        <v>341</v>
+      </c>
       <c r="D342" s="1">
-        <v>341</v>
+        <v>-22.796310048291733</v>
       </c>
       <c r="E342" s="1">
-        <v>-22.796310048291733</v>
-      </c>
-      <c r="F342" s="1">
         <v>-0.39787159804285172</v>
       </c>
     </row>
-    <row r="343" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C343" s="1">
+        <v>342</v>
+      </c>
       <c r="D343" s="1">
-        <v>342</v>
+        <v>-22.88757606230967</v>
       </c>
       <c r="E343" s="1">
-        <v>-22.88757606230967</v>
-      </c>
-      <c r="F343" s="1">
         <v>-0.39946449420751146</v>
       </c>
     </row>
-    <row r="344" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C344" s="1">
+        <v>343</v>
+      </c>
       <c r="D344" s="1">
-        <v>343</v>
+        <v>-22.972059961867846</v>
       </c>
       <c r="E344" s="1">
-        <v>-22.972059961867846</v>
-      </c>
-      <c r="F344" s="1">
         <v>-0.40093901986780012</v>
       </c>
     </row>
-    <row r="345" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C345" s="1">
+        <v>344</v>
+      </c>
       <c r="D345" s="1">
-        <v>344</v>
+        <v>-23.0497367124464</v>
       </c>
       <c r="E345" s="1">
-        <v>-23.0497367124464</v>
-      </c>
-      <c r="F345" s="1">
         <v>-0.40229473808789779</v>
       </c>
     </row>
-    <row r="346" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C346" s="1">
+        <v>345</v>
+      </c>
       <c r="D346" s="1">
-        <v>345</v>
+        <v>-23.120583296640095</v>
       </c>
       <c r="E346" s="1">
-        <v>-23.120583296640095</v>
-      </c>
-      <c r="F346" s="1">
         <v>-0.40353124713735844</v>
       </c>
     </row>
-    <row r="347" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C347" s="1">
+        <v>346</v>
+      </c>
       <c r="D347" s="1">
-        <v>346</v>
+        <v>-23.184578720978863</v>
       </c>
       <c r="E347" s="1">
-        <v>-23.184578720978863</v>
-      </c>
-      <c r="F347" s="1">
         <v>-0.40464818061015106</v>
       </c>
     </row>
-    <row r="348" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C348" s="1">
+        <v>347</v>
+      </c>
       <c r="D348" s="1">
-        <v>347</v>
+        <v>-23.241704022148653</v>
       </c>
       <c r="E348" s="1">
-        <v>-23.241704022148653</v>
-      </c>
-      <c r="F348" s="1">
         <v>-0.40564520753323452</v>
       </c>
     </row>
-    <row r="349" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C349" s="1">
+        <v>348</v>
+      </c>
       <c r="D349" s="1">
-        <v>348</v>
+        <v>-23.291942272610687</v>
       </c>
       <c r="E349" s="1">
-        <v>-23.291942272610687</v>
-      </c>
-      <c r="F349" s="1">
         <v>-0.40652203246463187</v>
       </c>
     </row>
-    <row r="350" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C350" s="1">
+        <v>349</v>
+      </c>
       <c r="D350" s="1">
-        <v>349</v>
+        <v>-23.335278585617505</v>
       </c>
       <c r="E350" s="1">
-        <v>-23.335278585617505</v>
-      </c>
-      <c r="F350" s="1">
         <v>-0.40727839558097756</v>
       </c>
     </row>
-    <row r="351" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C351" s="1">
+        <v>350</v>
+      </c>
       <c r="D351" s="1">
-        <v>350</v>
+        <v>-23.37170011962424</v>
       </c>
       <c r="E351" s="1">
-        <v>-23.37170011962424</v>
-      </c>
-      <c r="F351" s="1">
         <v>-0.40791407275450842</v>
       </c>
     </row>
-    <row r="352" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C352" s="1">
+        <v>351</v>
+      </c>
       <c r="D352" s="1">
-        <v>351</v>
+        <v>-23.401196082093843</v>
       </c>
       <c r="E352" s="1">
-        <v>-23.401196082093843</v>
-      </c>
-      <c r="F352" s="1">
         <v>-0.40842887561947788</v>
       </c>
     </row>
-    <row r="353" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C353" s="1">
+        <v>352</v>
+      </c>
       <c r="D353" s="1">
-        <v>352</v>
+        <v>-23.423757732695194</v>
       </c>
       <c r="E353" s="1">
-        <v>-23.423757732695194</v>
-      </c>
-      <c r="F353" s="1">
         <v>-0.40882265162797338</v>
       </c>
     </row>
-    <row r="354" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C354" s="1">
+        <v>353</v>
+      </c>
       <c r="D354" s="1">
-        <v>353</v>
+        <v>-23.439378385893018</v>
       </c>
       <c r="E354" s="1">
-        <v>-23.439378385893018</v>
-      </c>
-      <c r="F354" s="1">
         <v>-0.40909528409511947</v>
       </c>
     </row>
-    <row r="355" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C355" s="1">
+        <v>354</v>
+      </c>
       <c r="D355" s="1">
-        <v>354</v>
+        <v>-23.448053412929017</v>
       </c>
       <c r="E355" s="1">
-        <v>-23.448053412929017</v>
-      </c>
-      <c r="F355" s="1">
         <v>-0.40924669223365445</v>
       </c>
     </row>
-    <row r="356" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C356" s="1">
+        <v>355</v>
+      </c>
       <c r="D356" s="1">
-        <v>355</v>
+        <v>-23.449780243193427</v>
       </c>
       <c r="E356" s="1">
-        <v>-23.449780243193427</v>
-      </c>
-      <c r="F356" s="1">
         <v>-0.40927683117786928</v>
       </c>
     </row>
-    <row r="357" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C357" s="1">
+        <v>356</v>
+      </c>
       <c r="D357" s="1">
-        <v>356</v>
+        <v>-23.444558364986786</v>
       </c>
       <c r="E357" s="1">
-        <v>-23.444558364986786</v>
-      </c>
-      <c r="F357" s="1">
         <v>-0.40918569199690269</v>
       </c>
     </row>
-    <row r="358" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C358" s="1">
+        <v>357</v>
+      </c>
       <c r="D358" s="1">
-        <v>357</v>
+        <v>-23.432389325671533</v>
       </c>
       <c r="E358" s="1">
-        <v>-23.432389325671533</v>
-      </c>
-      <c r="F358" s="1">
         <v>-0.40897330169738716</v>
       </c>
     </row>
-    <row r="359" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C359" s="1">
+        <v>358</v>
+      </c>
       <c r="D359" s="1">
-        <v>358</v>
+        <v>-23.413276731213514</v>
       </c>
       <c r="E359" s="1">
-        <v>-23.413276731213514</v>
-      </c>
-      <c r="F359" s="1">
         <v>-0.40863972321544656</v>
       </c>
     </row>
-    <row r="360" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C360" s="1">
+        <v>359</v>
+      </c>
       <c r="D360" s="1">
-        <v>359</v>
+        <v>-23.387226245113443</v>
       </c>
       <c r="E360" s="1">
-        <v>-23.387226245113443</v>
-      </c>
-      <c r="F360" s="1">
         <v>-0.40818505539804661</v>
       </c>
     </row>
-    <row r="361" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C361" s="1">
+        <v>360</v>
+      </c>
       <c r="D361" s="1">
-        <v>360</v>
+        <v>-23.354245586728659</v>
       </c>
       <c r="E361" s="1">
-        <v>-23.354245586728659</v>
-      </c>
-      <c r="F361" s="1">
         <v>-0.40760943297370422</v>
       </c>
     </row>
-    <row r="362" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C362" s="1">
+        <v>361</v>
+      </c>
       <c r="D362" s="1">
-        <v>361</v>
+        <v>-23.314344528985732</v>
       </c>
       <c r="E362" s="1">
-        <v>-23.314344528985732</v>
-      </c>
-      <c r="F362" s="1">
         <v>-0.40691302651256428</v>
       </c>
     </row>
-    <row r="363" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C363" s="1">
+        <v>362</v>
+      </c>
       <c r="D363" s="1">
-        <v>362</v>
+        <v>-23.267534895484506</v>
       </c>
       <c r="E363" s="1">
-        <v>-23.267534895484506</v>
-      </c>
-      <c r="F363" s="1">
         <v>-0.40609604237585628</v>
       </c>
     </row>
-    <row r="364" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C364" s="1">
+        <v>363</v>
+      </c>
       <c r="D364" s="1">
-        <v>363</v>
+        <v>-23.213830556994481</v>
       </c>
       <c r="E364" s="1">
-        <v>-23.213830556994481</v>
-      </c>
-      <c r="F364" s="1">
         <v>-0.40515872265474367</v>
       </c>
     </row>
-    <row r="365" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C365" s="1">
+        <v>364</v>
+      </c>
       <c r="D365" s="1">
-        <v>364</v>
+        <v>-23.15324742734462</v>
       </c>
       <c r="E365" s="1">
-        <v>-23.15324742734462</v>
-      </c>
-      <c r="F365" s="1">
         <v>-0.40410134509858808</v>
       </c>
     </row>
-    <row r="366" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C366" s="1">
+        <v>365</v>
+      </c>
       <c r="D366" s="1">
-        <v>365</v>
+        <v>-23.085803458707698</v>
       </c>
       <c r="E366" s="1">
-        <v>-23.085803458707698</v>
-      </c>
-      <c r="F366" s="1">
         <v>-0.40292422303264497</v>
       </c>
     </row>
